--- a/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
+++ b/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e770999b6604146b/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/Statusberichte/Tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="530" documentId="8_{7B06A07F-7188-0946-B048-C7944435CBA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3526E549-D31C-CA4B-ACEE-15A866A1CA6C}"/>
+  <xr:revisionPtr revIDLastSave="605" documentId="8_{7B06A07F-7188-0946-B048-C7944435CBA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{492A8F26-95FE-FD40-A8D1-14917B3A4C33}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Legende!$O$3:$T$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Matrix!$N$4:$T$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Matrixverschiebungen!$B$3:$L$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Risiko!$B$1:$N$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Risiko!$B$1:$M$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Übersicht!$B$2:$C$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="120">
   <si>
     <t>A</t>
   </si>
@@ -102,15 +101,6 @@
     <t>pi</t>
   </si>
   <si>
-    <t>Prävention</t>
-  </si>
-  <si>
-    <t>pi'</t>
-  </si>
-  <si>
-    <t>Si'</t>
-  </si>
-  <si>
     <t>Pufferzeiten einplanen</t>
   </si>
   <si>
@@ -157,12 +147,6 @@
   </si>
   <si>
     <t>Symbole</t>
-  </si>
-  <si>
-    <t>R(Ei)</t>
-  </si>
-  <si>
-    <t>R'(Ei)</t>
   </si>
   <si>
     <t>Lukas von Däniken</t>
@@ -292,37 +276,19 @@
     <t>Beschreibung</t>
   </si>
   <si>
-    <t>Stv. kann Projekt weiterführen</t>
-  </si>
-  <si>
-    <t>Stv. kann Zeitplan durchsetzten</t>
-  </si>
-  <si>
     <t>Krankheit
 Private Ereignisse</t>
   </si>
   <si>
-    <t>Zeitplan wird eingehalten</t>
-  </si>
-  <si>
     <t>Unerwartete APs
 kommen hinzu</t>
   </si>
   <si>
-    <t>Vergessengehen von APs wird minimiert</t>
-  </si>
-  <si>
     <t>Zeiten der APs sind zu knapp kalkuliert</t>
-  </si>
-  <si>
-    <t>Verspätungen werden minimiert</t>
   </si>
   <si>
     <t>Lastenheft falsch,
 mangelhaft</t>
-  </si>
-  <si>
-    <t>keine Unklarheiten werden offengelassen</t>
   </si>
   <si>
     <t>APs zu anspruchsvoll</t>
@@ -393,9 +359,6 @@
     <t>saubere Dokumentation der individuellen Arbeiten.</t>
   </si>
   <si>
-    <t>erarbeitetes Wissen geht nicht verloren</t>
-  </si>
-  <si>
     <t>Ungerechte Arbeitsaufteilung
 demotivierte Teammitglieder</t>
   </si>
@@ -405,9 +368,6 @@
 Motivation leidet</t>
   </si>
   <si>
-    <t>Differenzen werden reduziert</t>
-  </si>
-  <si>
     <t>schlechte Planung,
 zu wenig Einsatz</t>
   </si>
@@ -415,18 +375,11 @@
     <t>Kompetenzen werden falsch eingeschätzt</t>
   </si>
   <si>
-    <t>Jeder ist im stande sein AP durchzuführen</t>
-  </si>
-  <si>
     <t>im Voraus alles klar definieren</t>
   </si>
   <si>
     <t>alle Teammitglieder schauen den
 Projektplan an und ergänzen diesen</t>
-  </si>
-  <si>
-    <t>Daten verlust nur zurück zum Zeitpunkt
-des letzten Backup</t>
   </si>
   <si>
     <t>regelmässige Backup erstellen,
@@ -444,6 +397,39 @@
   </si>
   <si>
     <t>kaum</t>
+  </si>
+  <si>
+    <t>Indikator</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>&lt; 1 Woche</t>
+  </si>
+  <si>
+    <t>&gt; 1 Woche</t>
+  </si>
+  <si>
+    <t>Meldung an Projektleiter Stv.</t>
+  </si>
+  <si>
+    <t>Meldung an Projektleiter</t>
+  </si>
+  <si>
+    <t>ja / nein</t>
   </si>
 </sst>
 </file>
@@ -1283,19 +1269,6 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1387,11 +1360,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1409,12 +1397,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1539,12 +1521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1579,12 +1555,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1594,13 +1564,10 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,24 +1576,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,10 +1585,25 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1714,230 +1678,272 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4896,10 +4902,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O107"/>
+  <dimension ref="B1:N107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4907,694 +4913,540 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
-    <col min="6" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="10" width="34.1640625" customWidth="1"/>
-    <col min="11" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
-    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="8" width="34.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15" ht="32" customHeight="1" thickBot="1">
-      <c r="B2" s="73"/>
-      <c r="C2" s="77" t="s">
+    <row r="1" spans="2:14" ht="16" thickBot="1">
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="32" customHeight="1" thickBot="1">
+      <c r="B2" s="66"/>
+      <c r="C2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="40"/>
+    </row>
+    <row r="3" spans="2:14" ht="32" customHeight="1" thickBot="1">
+      <c r="B3" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="180" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="180" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="2:14" ht="68" customHeight="1" thickBot="1">
+      <c r="B4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="177" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="181" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="186" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="189"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="56"/>
+    </row>
+    <row r="5" spans="2:14" ht="68" customHeight="1" thickBot="1">
+      <c r="B5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="177" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="181" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="186" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="189"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="56"/>
+    </row>
+    <row r="6" spans="2:14" ht="59" customHeight="1" thickBot="1">
+      <c r="B6" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="177" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="181" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="186" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="189"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="47"/>
+    </row>
+    <row r="7" spans="2:14" ht="72" customHeight="1" thickBot="1">
+      <c r="B7" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="177" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="181" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="186" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="189"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="190"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="45"/>
+    </row>
+    <row r="8" spans="2:14" ht="58" customHeight="1" thickBot="1">
+      <c r="B8" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="177" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="65"/>
+      <c r="I8" s="186" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="189"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="45"/>
+    </row>
+    <row r="9" spans="2:14" ht="70" customHeight="1" thickBot="1">
+      <c r="B9" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="181" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="186" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="189"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="2:14" ht="58" customHeight="1" thickBot="1">
+      <c r="B10" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="177" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="42"/>
-    </row>
-    <row r="3" spans="2:15" ht="32" customHeight="1" thickBot="1">
-      <c r="B3" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="54" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="186" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="189"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="2:14" ht="55" customHeight="1" thickBot="1">
+      <c r="B11" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="69" t="s">
+      <c r="D11" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="181" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="186" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="189"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="2:14" ht="60" customHeight="1" thickBot="1">
+      <c r="B12" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="E12" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="42"/>
-    </row>
-    <row r="4" spans="2:15" ht="68" customHeight="1" thickBot="1">
-      <c r="B4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-      <c r="H4" s="75">
-        <f>F4*G4</f>
-        <v>4</v>
-      </c>
-      <c r="I4" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="65">
-        <v>1</v>
-      </c>
-      <c r="M4" s="66">
-        <f>K4*L4</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="60"/>
-    </row>
-    <row r="5" spans="2:15" ht="68" customHeight="1" thickBot="1">
-      <c r="B5" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="70">
-        <f t="shared" ref="H5:H13" si="0">F5*G5</f>
-        <v>4</v>
-      </c>
-      <c r="I5" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="65">
-        <v>2</v>
-      </c>
-      <c r="M5" s="66">
-        <f t="shared" ref="M5:M13" si="1">K5*L5</f>
-        <v>2</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="60"/>
-    </row>
-    <row r="6" spans="2:15" ht="59" customHeight="1" thickBot="1">
-      <c r="B6" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="48" t="s">
+      <c r="F12" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="181" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="186" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="189"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="44"/>
+    </row>
+    <row r="13" spans="2:14" ht="62" customHeight="1" thickBot="1">
+      <c r="B13" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="70">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>2</v>
-      </c>
-      <c r="M6" s="66">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="49"/>
-    </row>
-    <row r="7" spans="2:15" ht="72" customHeight="1" thickBot="1">
-      <c r="B7" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="8">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="70">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I7" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>2</v>
-      </c>
-      <c r="M7" s="66">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="47"/>
-    </row>
-    <row r="8" spans="2:15" ht="58" customHeight="1" thickBot="1">
-      <c r="B8" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="8">
-        <v>3</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="70">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I8" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="8">
-        <v>2</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="66">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="47"/>
-    </row>
-    <row r="9" spans="2:15" ht="70" customHeight="1" thickBot="1">
-      <c r="B9" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2</v>
-      </c>
-      <c r="H9" s="70">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I9" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="8">
-        <v>2</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="66">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N9" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="43"/>
-    </row>
-    <row r="10" spans="2:15" ht="58" customHeight="1" thickBot="1">
-      <c r="B10" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>3</v>
-      </c>
-      <c r="H10" s="70">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="66">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="43"/>
-    </row>
-    <row r="11" spans="2:15" ht="55" customHeight="1" thickBot="1">
-      <c r="B11" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="8">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="70">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="8">
-        <v>2</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="66">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N11" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="43"/>
-    </row>
-    <row r="12" spans="2:15" ht="60" customHeight="1" thickBot="1">
-      <c r="B12" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="8">
-        <v>3</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2</v>
-      </c>
-      <c r="H12" s="70">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I12" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="66">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="46"/>
-    </row>
-    <row r="13" spans="2:15" ht="62" customHeight="1" thickBot="1">
-      <c r="B13" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="52">
-        <v>3</v>
-      </c>
-      <c r="G13" s="52">
-        <v>2</v>
-      </c>
-      <c r="H13" s="70">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I13" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" s="51" t="s">
+      <c r="G13" s="182" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="187"/>
+      <c r="I13" s="188" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="52">
-        <v>1</v>
-      </c>
-      <c r="L13" s="52">
-        <v>1</v>
-      </c>
-      <c r="M13" s="66">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="46"/>
-    </row>
-    <row r="14" spans="2:15" ht="51" customHeight="1">
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="83"/>
-    </row>
-    <row r="15" spans="2:15" ht="39.75" customHeight="1">
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="83"/>
-    </row>
-    <row r="16" spans="2:15" ht="48" customHeight="1">
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="83"/>
-    </row>
-    <row r="17" spans="2:15" ht="50" customHeight="1">
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="83"/>
-    </row>
-    <row r="18" spans="2:15" ht="44.5" customHeight="1">
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="83"/>
-    </row>
-    <row r="19" spans="2:15" ht="36.75" customHeight="1">
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="83"/>
-    </row>
-    <row r="20" spans="2:15" ht="59" customHeight="1">
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="83"/>
-    </row>
-    <row r="21" spans="2:15" ht="51" customHeight="1">
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="83"/>
-    </row>
-    <row r="22" spans="2:15" ht="32" customHeight="1">
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-    </row>
-    <row r="23" spans="2:15" ht="41.75" customHeight="1">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-    </row>
-    <row r="24" spans="2:15" ht="67.25" customHeight="1">
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="84"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="185"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="14" spans="2:14" ht="51" customHeight="1">
+      <c r="B14" s="74"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="70"/>
+    </row>
+    <row r="15" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B15" s="74"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="70"/>
+    </row>
+    <row r="16" spans="2:14" ht="48" customHeight="1">
+      <c r="B16" s="74"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="70"/>
+    </row>
+    <row r="17" spans="2:14" ht="50" customHeight="1">
+      <c r="B17" s="74"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="70"/>
+    </row>
+    <row r="18" spans="2:14" ht="44.5" customHeight="1">
+      <c r="B18" s="74"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="70"/>
+    </row>
+    <row r="19" spans="2:14" ht="36.75" customHeight="1">
+      <c r="B19" s="74"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="70"/>
+    </row>
+    <row r="20" spans="2:14" ht="59" customHeight="1">
+      <c r="B20" s="74"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="70"/>
+    </row>
+    <row r="21" spans="2:14" ht="51" customHeight="1">
+      <c r="B21" s="74"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="70"/>
+    </row>
+    <row r="22" spans="2:14" ht="32" customHeight="1">
+      <c r="B22" s="74"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+    </row>
+    <row r="23" spans="2:14" ht="41.75" customHeight="1">
+      <c r="B23" s="74"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+    </row>
+    <row r="24" spans="2:14" ht="67.25" customHeight="1">
+      <c r="B24" s="74"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="72"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -5606,10 +5458,9 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="85"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="73"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5621,10 +5472,9 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="85"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="73"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -5636,9 +5486,8 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:15">
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5651,9 +5500,8 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:15">
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5666,9 +5514,8 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:15">
+    </row>
+    <row r="30" spans="2:14">
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5681,9 +5528,8 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:15">
+    </row>
+    <row r="31" spans="2:14">
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5696,9 +5542,8 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:15">
+    </row>
+    <row r="32" spans="2:14">
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5711,9 +5556,8 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14">
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5726,9 +5570,8 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14">
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5741,9 +5584,8 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14">
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5756,10 +5598,9 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="32"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="30"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5771,10 +5612,9 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="32"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="30"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5786,9 +5626,8 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="2:14">
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="3"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5801,9 +5640,8 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14">
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5816,9 +5654,8 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14">
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5831,9 +5668,8 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14">
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5846,9 +5682,8 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14">
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42" s="3"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5861,9 +5696,8 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14">
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" s="3"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5876,9 +5710,8 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14">
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" s="3"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5891,9 +5724,8 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14">
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5906,9 +5738,8 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14">
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46" s="3"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5921,9 +5752,8 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14">
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47" s="3"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5936,9 +5766,8 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14">
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48" s="3"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5951,9 +5780,8 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:15">
+    </row>
+    <row r="49" spans="2:14">
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5966,9 +5794,8 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:15" ht="20.75" customHeight="1">
+    </row>
+    <row r="50" spans="2:14" ht="20.75" customHeight="1">
       <c r="B50" s="3"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5981,9 +5808,8 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:15" ht="20.5" customHeight="1">
+    </row>
+    <row r="51" spans="2:14" ht="20.5" customHeight="1">
       <c r="B51" s="3"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5996,9 +5822,8 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:15" ht="20.5" customHeight="1">
+    </row>
+    <row r="52" spans="2:14" ht="20.5" customHeight="1">
       <c r="B52" s="3"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6011,9 +5836,8 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:15" ht="20.5" customHeight="1">
+    </row>
+    <row r="53" spans="2:14" ht="20.5" customHeight="1">
       <c r="B53" s="3"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6026,9 +5850,8 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:15" ht="20.5" customHeight="1">
+    </row>
+    <row r="54" spans="2:14" ht="20.5" customHeight="1">
       <c r="B54" s="3"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6041,9 +5864,8 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:15" ht="20.5" customHeight="1">
+    </row>
+    <row r="55" spans="2:14" ht="20.5" customHeight="1">
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6056,9 +5878,8 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="2:15" ht="20.5" customHeight="1">
+    </row>
+    <row r="56" spans="2:14" ht="20.5" customHeight="1">
       <c r="B56" s="3"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6071,9 +5892,8 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:15" ht="20.5" customHeight="1">
+    </row>
+    <row r="57" spans="2:14" ht="20.5" customHeight="1">
       <c r="B57" s="3"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6086,9 +5906,8 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="2:15">
+    </row>
+    <row r="58" spans="2:14">
       <c r="B58" s="3"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6101,9 +5920,8 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="2:15">
+    </row>
+    <row r="59" spans="2:14">
       <c r="B59" s="3"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6116,9 +5934,8 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:15">
+    </row>
+    <row r="60" spans="2:14">
       <c r="B60" s="3"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6131,9 +5948,8 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:15">
+    </row>
+    <row r="61" spans="2:14">
       <c r="B61" s="3"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6146,9 +5962,8 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="2:15">
+    </row>
+    <row r="62" spans="2:14">
       <c r="B62" s="3"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6162,9 +5977,8 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="2:15">
+    </row>
+    <row r="63" spans="2:14">
       <c r="B63" s="3"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6178,9 +5992,8 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="2:15">
+    </row>
+    <row r="64" spans="2:14">
       <c r="B64" s="3"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6194,9 +6007,8 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="2:15">
+    </row>
+    <row r="65" spans="2:14">
       <c r="B65" s="3"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6210,9 +6022,8 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="2:15">
+    </row>
+    <row r="66" spans="2:14">
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6226,9 +6037,8 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="2:15">
+    </row>
+    <row r="67" spans="2:14">
       <c r="B67" s="3"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6242,9 +6052,8 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="2:15">
+    </row>
+    <row r="68" spans="2:14">
       <c r="B68" s="3"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6258,9 +6067,8 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="2:15">
+    </row>
+    <row r="69" spans="2:14">
       <c r="B69" s="3"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6274,9 +6082,8 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="2:15">
+    </row>
+    <row r="70" spans="2:14">
       <c r="B70" s="3"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -6290,9 +6097,8 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="2:15">
+    </row>
+    <row r="71" spans="2:14">
       <c r="B71" s="3"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -6306,9 +6112,8 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="2:15">
+    </row>
+    <row r="72" spans="2:14">
       <c r="B72" s="3"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -6322,9 +6127,8 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="2:15">
+    </row>
+    <row r="73" spans="2:14">
       <c r="B73" s="3"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6338,9 +6142,8 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="2:15">
+    </row>
+    <row r="74" spans="2:14">
       <c r="B74" s="3"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6354,9 +6157,8 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="2:15">
+    </row>
+    <row r="75" spans="2:14">
       <c r="B75" s="3"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6370,9 +6172,8 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="2:15">
+    </row>
+    <row r="76" spans="2:14">
       <c r="B76" s="3"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6386,9 +6187,8 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="2:15">
+    </row>
+    <row r="77" spans="2:14">
       <c r="B77" s="3"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6402,9 +6202,8 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="2:15">
+    </row>
+    <row r="78" spans="2:14">
       <c r="B78" s="3"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6418,9 +6217,8 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="2:15">
+    </row>
+    <row r="79" spans="2:14">
       <c r="B79" s="3"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6434,9 +6232,8 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="2:15">
+    </row>
+    <row r="80" spans="2:14">
       <c r="B80" s="3"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6450,9 +6247,8 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="2:15">
+    </row>
+    <row r="81" spans="2:14">
       <c r="B81" s="3"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6466,9 +6262,8 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="2:15">
+    </row>
+    <row r="82" spans="2:14">
       <c r="B82" s="3"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -6482,9 +6277,8 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="2:15">
+    </row>
+    <row r="83" spans="2:14">
       <c r="B83" s="3"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6498,9 +6292,8 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="2:15">
+    </row>
+    <row r="84" spans="2:14">
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6514,9 +6307,8 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="2:15">
+    </row>
+    <row r="85" spans="2:14">
       <c r="B85" s="3"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6530,9 +6322,8 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="2:15">
+    </row>
+    <row r="86" spans="2:14">
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6546,9 +6337,8 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="2:15">
+    </row>
+    <row r="87" spans="2:14">
       <c r="B87" s="3"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -6562,9 +6352,8 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="2:15">
+    </row>
+    <row r="88" spans="2:14">
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6578,9 +6367,8 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-    </row>
-    <row r="89" spans="2:15">
+    </row>
+    <row r="89" spans="2:14">
       <c r="B89" s="3"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -6594,9 +6382,8 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-    </row>
-    <row r="90" spans="2:15">
+    </row>
+    <row r="90" spans="2:14">
       <c r="B90" s="3"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -6610,9 +6397,8 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-    </row>
-    <row r="91" spans="2:15">
+    </row>
+    <row r="91" spans="2:14">
       <c r="B91" s="3"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -6626,9 +6412,8 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-    </row>
-    <row r="92" spans="2:15">
+    </row>
+    <row r="92" spans="2:14">
       <c r="B92" s="3"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -6642,9 +6427,8 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="2:15">
+    </row>
+    <row r="93" spans="2:14">
       <c r="B93" s="3"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -6658,9 +6442,8 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="2:15">
+    </row>
+    <row r="94" spans="2:14">
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -6674,9 +6457,8 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="2:15">
+    </row>
+    <row r="95" spans="2:14">
       <c r="B95" s="3"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -6690,9 +6472,8 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-    </row>
-    <row r="96" spans="2:15">
+    </row>
+    <row r="96" spans="2:14">
       <c r="B96" s="3"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -6706,9 +6487,8 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-    </row>
-    <row r="97" spans="2:15">
+    </row>
+    <row r="97" spans="2:14">
       <c r="B97" s="3"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -6722,9 +6502,8 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-    </row>
-    <row r="98" spans="2:15">
+    </row>
+    <row r="98" spans="2:14">
       <c r="B98" s="3"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -6738,9 +6517,8 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-    </row>
-    <row r="99" spans="2:15">
+    </row>
+    <row r="99" spans="2:14">
       <c r="B99" s="3"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -6754,9 +6532,8 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-    </row>
-    <row r="100" spans="2:15">
+    </row>
+    <row r="100" spans="2:14">
       <c r="B100" s="3"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -6770,9 +6547,8 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-    </row>
-    <row r="101" spans="2:15">
+    </row>
+    <row r="101" spans="2:14">
       <c r="B101" s="3"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -6786,9 +6562,8 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-    </row>
-    <row r="102" spans="2:15">
+    </row>
+    <row r="102" spans="2:14">
       <c r="B102" s="3"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -6802,9 +6577,8 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-    </row>
-    <row r="103" spans="2:15">
+    </row>
+    <row r="103" spans="2:14">
       <c r="B103" s="3"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -6818,9 +6592,8 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-    </row>
-    <row r="104" spans="2:15">
+    </row>
+    <row r="104" spans="2:14">
       <c r="B104" s="3"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -6834,9 +6607,8 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-    </row>
-    <row r="105" spans="2:15">
+    </row>
+    <row r="105" spans="2:14">
       <c r="B105" s="3"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -6850,9 +6622,8 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-    </row>
-    <row r="106" spans="2:15">
+    </row>
+    <row r="106" spans="2:14">
       <c r="B106" s="3"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -6866,9 +6637,8 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-    </row>
-    <row r="107" spans="2:15">
+    </row>
+    <row r="107" spans="2:14">
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -6882,72 +6652,48 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
+  <mergeCells count="37">
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
     <mergeCell ref="B25:B27"/>
+    <mergeCell ref="M17:M18"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
     <mergeCell ref="L19:L21"/>
     <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:H13">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M13 H4:H13">
+  <conditionalFormatting sqref="L4:L13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
@@ -6978,99 +6724,99 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1"/>
     <row r="2" spans="2:3" ht="16.25" customHeight="1" thickTop="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="str">
+      <c r="C3" s="18" t="str">
         <f>Risiko!C4</f>
         <v>Projektleiter fällt kurzfristig aus</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="str">
+      <c r="C4" s="18" t="str">
         <f>Risiko!C5</f>
         <v>Projektleiter fällt lanfristig aus</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="str">
+      <c r="C5" s="18" t="str">
         <f>Risiko!C6</f>
         <v>Teammitglied fällt kurzfristig aus</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="18" t="str">
         <f>Risiko!C7</f>
         <v>Teammitglied fällt langfristig aus</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="str">
+      <c r="C7" s="18" t="str">
         <f>Risiko!C8</f>
         <v>Soziale Spannungen im Team</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="18" t="str">
         <f>Risiko!C9</f>
         <v>Strukturplan unvollständig</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="18" t="str">
         <f>Risiko!C10</f>
         <v>Zeiten der APs sind zu knapp kalkuliert</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="C10" s="18" t="str">
         <f>Risiko!C11</f>
         <v>APs zu anspruchsvoll</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="20" t="str">
+      <c r="C11" s="18" t="str">
         <f>Risiko!C12</f>
         <v>Auftrag ist unklar definiert</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="16.25" customHeight="1" thickBot="1">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="74" t="str">
+      <c r="C12" s="67" t="str">
         <f>Risiko!C13</f>
         <v>Datenverlust</v>
       </c>
@@ -7111,215 +6857,215 @@
   <sheetData>
     <row r="2" spans="2:20" ht="16" thickBot="1"/>
     <row r="3" spans="2:20" ht="21" thickBot="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="H3" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="98"/>
+      <c r="O3" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="90"/>
+    </row>
+    <row r="4" spans="2:20" ht="18">
+      <c r="B4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="18">
+      <c r="B5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="19" thickBot="1">
+      <c r="B6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="18">
+      <c r="B7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="O7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="18">
+      <c r="B8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="O8" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="88"/>
-      <c r="H3" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
-      <c r="O3" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="98"/>
-    </row>
-    <row r="4" spans="2:20" ht="18">
-      <c r="B4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="H4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12" t="s">
+      <c r="T8" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="19" thickBot="1">
+      <c r="B9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="18">
-      <c r="B5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="O9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="19" thickBot="1">
-      <c r="B6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="39" t="s">
+      <c r="P9" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="35" t="s">
+      <c r="T9" s="35" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="18">
-      <c r="B7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="O7" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="18">
-      <c r="B8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="O8" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="19" thickBot="1">
-      <c r="B9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-      <c r="O9" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="101" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" s="37" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -7365,7 +7111,7 @@
   <sheetData>
     <row r="1" spans="2:28" ht="22" customHeight="1"/>
     <row r="2" spans="2:28" ht="13.5" customHeight="1">
-      <c r="C2" s="63"/>
+      <c r="C2" s="59"/>
       <c r="D2" t="s">
         <v>17</v>
       </c>
@@ -7373,7 +7119,7 @@
     <row r="3" spans="2:28" ht="14.5" customHeight="1" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="62"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -7381,364 +7127,364 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="183" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="183" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="184"/>
-      <c r="E4" s="157">
+      <c r="B4" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="125"/>
+      <c r="E4" s="168">
         <v>3</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="127">
+      <c r="F4" s="157"/>
+      <c r="G4" s="138">
         <v>6</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="121">
+      <c r="H4" s="139"/>
+      <c r="I4" s="132">
         <v>9</v>
       </c>
-      <c r="J4" s="122"/>
-      <c r="N4" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="114"/>
-      <c r="P4" s="180" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="181"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="182"/>
-      <c r="V4" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="W4" s="114"/>
-      <c r="X4" s="180" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="181"/>
-      <c r="Z4" s="181"/>
-      <c r="AA4" s="181"/>
-      <c r="AB4" s="182"/>
+      <c r="J4" s="133"/>
+      <c r="N4" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="121"/>
+      <c r="P4" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="105"/>
+      <c r="V4" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="121"/>
+      <c r="X4" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="105"/>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1">
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124"/>
-      <c r="N5" s="178" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
+      <c r="N5" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="127"/>
+      <c r="P5" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="129"/>
+      <c r="V5" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="W5" s="127"/>
+      <c r="X5" s="122" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" s="129"/>
+    </row>
+    <row r="6" spans="2:28">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
+      <c r="N6" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="107"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="112"/>
+      <c r="V6" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="107"/>
+      <c r="X6" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="O5" s="179"/>
-      <c r="P5" s="170" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="T5" s="116"/>
-      <c r="V5" s="178" t="s">
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB6" s="112"/>
+    </row>
+    <row r="7" spans="2:28" ht="16" thickBot="1">
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
+      <c r="N7" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="114"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="119"/>
+      <c r="V7" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" s="114"/>
+      <c r="X7" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB7" s="119"/>
+    </row>
+    <row r="8" spans="2:28" ht="16" thickBot="1">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="137"/>
+    </row>
+    <row r="9" spans="2:28" ht="16" thickBot="1">
+      <c r="B9" s="102"/>
+      <c r="C9" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="125"/>
+      <c r="E9" s="172">
+        <v>2</v>
+      </c>
+      <c r="F9" s="145"/>
+      <c r="G9" s="162">
+        <v>4</v>
+      </c>
+      <c r="H9" s="163"/>
+      <c r="I9" s="138">
+        <v>6</v>
+      </c>
+      <c r="J9" s="139"/>
+      <c r="N9" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="121"/>
+      <c r="P9" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="105"/>
+    </row>
+    <row r="10" spans="2:28">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+      <c r="N10" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="127"/>
+      <c r="P10" s="122" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="129"/>
+    </row>
+    <row r="11" spans="2:28">
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+      <c r="N11" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="107"/>
+      <c r="P11" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="W5" s="179"/>
-      <c r="X5" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB5" s="116"/>
-    </row>
-    <row r="6" spans="2:28">
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
-      <c r="N6" s="165" t="s">
+      <c r="Q11" s="109"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" s="112"/>
+    </row>
+    <row r="12" spans="2:28" ht="16" thickBot="1">
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+      <c r="N12" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="114"/>
+      <c r="P12" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="166"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="117" t="s">
-        <v>97</v>
-      </c>
-      <c r="T6" s="118"/>
-      <c r="V6" s="165" t="s">
-        <v>93</v>
-      </c>
-      <c r="W6" s="166"/>
-      <c r="X6" s="173" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y6" s="174"/>
-      <c r="Z6" s="175"/>
-      <c r="AA6" s="117" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB6" s="118"/>
-    </row>
-    <row r="7" spans="2:28" ht="16" thickBot="1">
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
-      <c r="N7" s="176" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" s="177"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="T7" s="111"/>
-      <c r="V7" s="176" t="s">
-        <v>94</v>
-      </c>
-      <c r="W7" s="177"/>
-      <c r="X7" s="167" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y7" s="168"/>
-      <c r="Z7" s="169"/>
-      <c r="AA7" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB7" s="111"/>
-    </row>
-    <row r="8" spans="2:28" ht="16" thickBot="1">
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="126"/>
-    </row>
-    <row r="9" spans="2:28" ht="16" thickBot="1">
-      <c r="B9" s="183"/>
-      <c r="C9" s="183" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="184"/>
-      <c r="E9" s="161">
+      <c r="Q12" s="116"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" s="119"/>
+    </row>
+    <row r="13" spans="2:28" ht="16" thickBot="1">
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="143"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+    </row>
+    <row r="14" spans="2:28" ht="15" customHeight="1">
+      <c r="B14" s="102"/>
+      <c r="C14" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="125"/>
+      <c r="E14" s="150">
+        <v>1</v>
+      </c>
+      <c r="F14" s="151"/>
+      <c r="G14" s="144">
         <v>2</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="151">
-        <v>4</v>
-      </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="127">
-        <v>6</v>
-      </c>
-      <c r="J9" s="128"/>
-      <c r="N9" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="114"/>
-      <c r="P9" s="180" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="181"/>
-      <c r="S9" s="181"/>
-      <c r="T9" s="182"/>
-    </row>
-    <row r="10" spans="2:28">
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
-      <c r="N10" s="178" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="179"/>
-      <c r="P10" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="T10" s="116"/>
-    </row>
-    <row r="11" spans="2:28">
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
-      <c r="N11" s="165" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="166"/>
-      <c r="P11" s="173" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q11" s="174"/>
-      <c r="R11" s="175"/>
-      <c r="S11" s="117" t="s">
-        <v>101</v>
-      </c>
-      <c r="T11" s="118"/>
-    </row>
-    <row r="12" spans="2:28" ht="16" thickBot="1">
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="130"/>
-      <c r="N12" s="176" t="s">
-        <v>94</v>
-      </c>
-      <c r="O12" s="177"/>
-      <c r="P12" s="167" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="T12" s="111"/>
-    </row>
-    <row r="13" spans="2:28" ht="16" thickBot="1">
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-    </row>
-    <row r="14" spans="2:28" ht="15" customHeight="1">
-      <c r="B14" s="183"/>
-      <c r="C14" s="183" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="184"/>
-      <c r="E14" s="139">
-        <v>1</v>
-      </c>
-      <c r="F14" s="140"/>
-      <c r="G14" s="133">
-        <v>2</v>
-      </c>
-      <c r="H14" s="134"/>
-      <c r="I14" s="145">
+      <c r="H14" s="145"/>
+      <c r="I14" s="156">
         <v>3</v>
       </c>
-      <c r="J14" s="146"/>
+      <c r="J14" s="157"/>
     </row>
     <row r="15" spans="2:28">
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="148"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="159"/>
     </row>
     <row r="16" spans="2:28">
-      <c r="B16" s="183"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="148"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
     </row>
     <row r="18" spans="2:12" ht="16" thickBot="1">
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="61"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="10.25" customHeight="1" thickTop="1">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="119"/>
+      <c r="E19" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="130"/>
       <c r="L19" t="s">
         <v>18</v>
       </c>
@@ -7746,37 +7492,37 @@
     <row r="20" spans="2:12" ht="14.25" customHeight="1">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
+      <c r="E21" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="22.25" customHeight="1">
@@ -7852,6 +7598,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="I4:J8"/>
+    <mergeCell ref="I9:J13"/>
+    <mergeCell ref="G14:H18"/>
+    <mergeCell ref="E14:F18"/>
+    <mergeCell ref="I14:J18"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="E4:F8"/>
+    <mergeCell ref="G4:H8"/>
+    <mergeCell ref="E9:F13"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="E21:J22"/>
     <mergeCell ref="B4:B18"/>
     <mergeCell ref="P9:T9"/>
@@ -7868,41 +7649,6 @@
     <mergeCell ref="C9:D13"/>
     <mergeCell ref="C4:D8"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="I4:J8"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="G14:H18"/>
-    <mergeCell ref="E14:F18"/>
-    <mergeCell ref="I14:J18"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="E4:F8"/>
-    <mergeCell ref="G4:H8"/>
-    <mergeCell ref="E9:F13"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="S10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="150" orientation="portrait" r:id="rId1"/>
@@ -7929,7 +7675,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
-      <c r="C3" s="63"/>
+      <c r="C3" s="59"/>
       <c r="D3" t="s">
         <v>17</v>
       </c>
@@ -7937,7 +7683,7 @@
     <row r="4" spans="2:10" ht="16" thickBot="1">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="62"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -7945,212 +7691,212 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="183" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="183" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="184"/>
-      <c r="E5" s="157">
+      <c r="B5" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="168">
         <v>3</v>
       </c>
-      <c r="F5" s="146"/>
-      <c r="G5" s="127">
+      <c r="F5" s="157"/>
+      <c r="G5" s="138">
         <v>6</v>
       </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="121">
+      <c r="H5" s="139"/>
+      <c r="I5" s="132">
         <v>9</v>
       </c>
-      <c r="J5" s="122"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
     </row>
     <row r="9" spans="2:10" ht="16" thickBot="1">
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="183"/>
-      <c r="C10" s="183" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="184"/>
-      <c r="E10" s="161">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="172">
         <v>2</v>
       </c>
-      <c r="F10" s="134"/>
-      <c r="G10" s="151">
+      <c r="F10" s="145"/>
+      <c r="G10" s="162">
         <v>4</v>
       </c>
-      <c r="H10" s="152"/>
-      <c r="I10" s="127">
+      <c r="H10" s="163"/>
+      <c r="I10" s="138">
         <v>6</v>
       </c>
-      <c r="J10" s="128"/>
+      <c r="J10" s="139"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="130"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="130"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1">
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="143"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="183"/>
-      <c r="C15" s="183" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="139">
+      <c r="B15" s="102"/>
+      <c r="C15" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="125"/>
+      <c r="E15" s="150">
         <v>1</v>
       </c>
-      <c r="F15" s="140"/>
-      <c r="G15" s="133">
+      <c r="F15" s="151"/>
+      <c r="G15" s="144">
         <v>2</v>
       </c>
-      <c r="H15" s="134"/>
-      <c r="I15" s="145">
+      <c r="H15" s="145"/>
+      <c r="I15" s="156">
         <v>3</v>
       </c>
-      <c r="J15" s="146"/>
+      <c r="J15" s="157"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="183"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="148"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="148"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="2:12" ht="16" thickBot="1">
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="61"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="16" thickTop="1">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="119"/>
+      <c r="E20" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="130"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
@@ -8158,48 +7904,41 @@
     <row r="21" spans="2:12">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
+      <c r="E22" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
       <c r="K23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E22:J23"/>
-    <mergeCell ref="E15:F19"/>
-    <mergeCell ref="G15:H19"/>
-    <mergeCell ref="I15:J19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
     <mergeCell ref="B5:B19"/>
     <mergeCell ref="C5:D9"/>
     <mergeCell ref="E5:F9"/>
@@ -8210,6 +7949,13 @@
     <mergeCell ref="G10:H14"/>
     <mergeCell ref="I10:J14"/>
     <mergeCell ref="C15:D19"/>
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="E15:F19"/>
+    <mergeCell ref="G15:H19"/>
+    <mergeCell ref="I15:J19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="180" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
+++ b/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e770999b6604146b/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/Statusberichte/Tabellen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausschwegler/OneDrive/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/Statusberichte/Tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="605" documentId="8_{7B06A07F-7188-0946-B048-C7944435CBA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{492A8F26-95FE-FD40-A8D1-14917B3A4C33}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FD929E0E-7C25-EA4A-9596-EEF67940F538}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="128">
   <si>
     <t>A</t>
   </si>
@@ -430,6 +430,30 @@
   </si>
   <si>
     <t>ja / nein</t>
+  </si>
+  <si>
+    <t>Projektmitglied spricht Problem an oder erkennt ein Problem</t>
+  </si>
+  <si>
+    <t>Projektmitglied meldet ein Fehlendes AP</t>
+  </si>
+  <si>
+    <t>Zeiterffassung weisst grosse Diskrepanz zu Budget auf</t>
+  </si>
+  <si>
+    <t>Arbeiten werden mehrmals ausgeführt</t>
+  </si>
+  <si>
+    <t>Selbe Fragen kommen wiederholt auf</t>
+  </si>
+  <si>
+    <t>Abgelegte Daten sind nicht mehr vorhanden</t>
+  </si>
+  <si>
+    <t>Risikomanagement</t>
+  </si>
+  <si>
+    <t>Risikoüberwachung</t>
   </si>
 </sst>
 </file>
@@ -595,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1375,6 +1399,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1582,28 +1619,67 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1903,53 +1979,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1962,27 +1999,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC001"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF70AE47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4F4F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4905,7 +4921,7 @@
   <dimension ref="B1:N107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4931,19 +4947,21 @@
     </row>
     <row r="2" spans="2:14" ht="32" customHeight="1" thickBot="1">
       <c r="B2" s="66"/>
-      <c r="C2" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
+      <c r="C2" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="2:14" ht="32" customHeight="1" thickBot="1">
@@ -4962,13 +4980,13 @@
       <c r="F3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="72" t="s">
         <v>72</v>
       </c>
       <c r="H3" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="72" t="s">
         <v>110</v>
       </c>
       <c r="J3" s="50" t="s">
@@ -4998,21 +5016,21 @@
       <c r="E4" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="177" t="s">
+      <c r="F4" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="181" t="s">
+      <c r="G4" s="73" t="s">
         <v>95</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="186" t="s">
+      <c r="I4" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="189"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="190"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="48"/>
       <c r="N4" s="56"/>
     </row>
@@ -5029,21 +5047,21 @@
       <c r="E5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="177" t="s">
+      <c r="F5" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="181" t="s">
+      <c r="G5" s="73" t="s">
         <v>96</v>
       </c>
       <c r="H5" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="186" t="s">
+      <c r="I5" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="189"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="190"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="82"/>
       <c r="M5" s="48"/>
       <c r="N5" s="56"/>
     </row>
@@ -5060,21 +5078,21 @@
       <c r="E6" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="177" t="s">
+      <c r="F6" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="181" t="s">
+      <c r="G6" s="73" t="s">
         <v>97</v>
       </c>
       <c r="H6" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="186" t="s">
+      <c r="I6" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="189"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="190"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="82"/>
       <c r="M6" s="48"/>
       <c r="N6" s="47"/>
     </row>
@@ -5091,21 +5109,21 @@
       <c r="E7" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="177" t="s">
+      <c r="F7" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="181" t="s">
+      <c r="G7" s="73" t="s">
         <v>98</v>
       </c>
       <c r="H7" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="186" t="s">
+      <c r="I7" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="189"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="190"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="48"/>
       <c r="N7" s="45"/>
     </row>
@@ -5122,19 +5140,21 @@
       <c r="E8" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="177" t="s">
+      <c r="F8" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="181" t="s">
+      <c r="G8" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="186" t="s">
+      <c r="H8" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="189"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="190"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="48"/>
       <c r="N8" s="45"/>
     </row>
@@ -5151,19 +5171,21 @@
       <c r="E9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="177" t="s">
+      <c r="F9" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="181" t="s">
+      <c r="G9" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="186" t="s">
+      <c r="H9" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="189"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="190"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="82"/>
       <c r="M9" s="61"/>
       <c r="N9" s="41"/>
     </row>
@@ -5180,19 +5202,21 @@
       <c r="E10" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="177" t="s">
+      <c r="F10" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="181" t="s">
+      <c r="G10" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="186" t="s">
+      <c r="H10" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="189"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="190"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="82"/>
       <c r="M10" s="61"/>
       <c r="N10" s="41"/>
     </row>
@@ -5209,19 +5233,21 @@
       <c r="E11" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="177" t="s">
+      <c r="F11" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="181" t="s">
+      <c r="G11" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="186" t="s">
+      <c r="H11" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="189"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="190"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="82"/>
       <c r="M11" s="61"/>
       <c r="N11" s="41"/>
     </row>
@@ -5238,19 +5264,21 @@
       <c r="E12" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="178" t="s">
+      <c r="F12" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="181" t="s">
+      <c r="G12" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="186" t="s">
+      <c r="H12" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="189"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="190"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="82"/>
       <c r="M12" s="48"/>
       <c r="N12" s="44"/>
     </row>
@@ -5267,186 +5295,188 @@
       <c r="E13" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="178" t="s">
+      <c r="F13" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="182" t="s">
+      <c r="G13" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="187"/>
-      <c r="I13" s="188" t="s">
+      <c r="H13" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="J13" s="189"/>
-      <c r="K13" s="185"/>
-      <c r="L13" s="190"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="82"/>
       <c r="M13" s="62"/>
       <c r="N13" s="44"/>
     </row>
     <row r="14" spans="2:14" ht="51" customHeight="1">
-      <c r="B14" s="74"/>
-      <c r="C14" s="71"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="69"/>
       <c r="E14" s="42"/>
-      <c r="F14" s="71"/>
+      <c r="F14" s="87"/>
       <c r="G14" s="42"/>
       <c r="H14" s="55"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
       <c r="K14" s="68"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="70"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B15" s="74"/>
-      <c r="C15" s="71"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="69"/>
       <c r="E15" s="42"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="55"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="70"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="2:14" ht="48" customHeight="1">
-      <c r="B16" s="74"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="69"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="70"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="2:14" ht="50" customHeight="1">
-      <c r="B17" s="74"/>
-      <c r="C17" s="71"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="69"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="70"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="2:14" ht="44.5" customHeight="1">
-      <c r="B18" s="74"/>
-      <c r="C18" s="71"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="69"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
       <c r="H18" s="55"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="70"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="2:14" ht="36.75" customHeight="1">
-      <c r="B19" s="74"/>
-      <c r="C19" s="71"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="69"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="71"/>
+      <c r="F19" s="87"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="70"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="2:14" ht="59" customHeight="1">
-      <c r="B20" s="74"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="69"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="71"/>
+      <c r="F20" s="87"/>
       <c r="G20" s="42"/>
       <c r="H20" s="55"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="70"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="2:14" ht="51" customHeight="1">
-      <c r="B21" s="74"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="69"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="71"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="42"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="70"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="2:14" ht="32" customHeight="1">
-      <c r="B22" s="74"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="69"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
     </row>
     <row r="23" spans="2:14" ht="41.75" customHeight="1">
-      <c r="B23" s="74"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="69"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
       <c r="K23" s="68"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
     </row>
     <row r="24" spans="2:14" ht="67.25" customHeight="1">
-      <c r="B24" s="74"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="69"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="71"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="42"/>
       <c r="H24" s="55"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
       <c r="K24" s="68"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="72"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -5460,7 +5490,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="73"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5474,7 +5504,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="73"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6656,7 +6686,6 @@
   </sheetData>
   <mergeCells count="37">
     <mergeCell ref="H2:M2"/>
-    <mergeCell ref="C2:F2"/>
     <mergeCell ref="M14:M16"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C22:C24"/>
@@ -6667,14 +6696,15 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="C2:G2"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="L14:L16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="M22:M24"/>
     <mergeCell ref="N14:N16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="G15:G16"/>
@@ -6857,30 +6887,30 @@
   <sheetData>
     <row r="2" spans="2:20" ht="16" thickBot="1"/>
     <row r="3" spans="2:20" ht="21" thickBot="1">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="H3" s="96" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="H3" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="98"/>
-      <c r="O3" s="86" t="s">
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
+      <c r="O3" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="89" t="s">
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="90"/>
+      <c r="T3" s="103"/>
     </row>
     <row r="4" spans="2:20" ht="18">
       <c r="B4" s="20" t="s">
@@ -6962,19 +6992,19 @@
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
       <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
       <c r="L6" s="13" t="s">
         <v>33</v>
       </c>
@@ -6984,11 +7014,11 @@
       <c r="O6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="91" t="s">
+      <c r="P6" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="92"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="105"/>
       <c r="S6" s="37" t="s">
         <v>50</v>
       </c>
@@ -7048,19 +7078,19 @@
       <c r="B9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
       <c r="O9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="93" t="s">
+      <c r="P9" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="108"/>
       <c r="S9" s="38" t="s">
         <v>55</v>
       </c>
@@ -7127,364 +7157,364 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="168">
+      <c r="D4" s="138"/>
+      <c r="E4" s="181">
         <v>3</v>
       </c>
-      <c r="F4" s="157"/>
-      <c r="G4" s="138">
+      <c r="F4" s="170"/>
+      <c r="G4" s="151">
         <v>6</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="132">
+      <c r="H4" s="152"/>
+      <c r="I4" s="145">
         <v>9</v>
       </c>
-      <c r="J4" s="133"/>
-      <c r="N4" s="120" t="s">
+      <c r="J4" s="146"/>
+      <c r="N4" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="121"/>
-      <c r="P4" s="103" t="s">
+      <c r="O4" s="134"/>
+      <c r="P4" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="105"/>
-      <c r="V4" s="120" t="s">
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="118"/>
+      <c r="V4" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="121"/>
-      <c r="X4" s="103" t="s">
+      <c r="W4" s="134"/>
+      <c r="X4" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="105"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="118"/>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1">
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="135"/>
-      <c r="N5" s="126" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
+      <c r="N5" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="127"/>
-      <c r="P5" s="122" t="s">
+      <c r="O5" s="140"/>
+      <c r="P5" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="128" t="s">
+      <c r="Q5" s="136"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="129"/>
-      <c r="V5" s="126" t="s">
+      <c r="T5" s="142"/>
+      <c r="V5" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="127"/>
-      <c r="X5" s="122" t="s">
+      <c r="W5" s="140"/>
+      <c r="X5" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="128" t="s">
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="AB5" s="129"/>
+      <c r="AB5" s="142"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
-      <c r="N6" s="106" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
+      <c r="N6" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="107"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="111" t="s">
+      <c r="O6" s="120"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="112"/>
-      <c r="V6" s="106" t="s">
+      <c r="T6" s="125"/>
+      <c r="V6" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="107"/>
-      <c r="X6" s="108" t="s">
+      <c r="W6" s="120"/>
+      <c r="X6" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="111" t="s">
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="AB6" s="112"/>
+      <c r="AB6" s="125"/>
     </row>
     <row r="7" spans="2:28" ht="16" thickBot="1">
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
-      <c r="N7" s="113" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
+      <c r="N7" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="114"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="118" t="s">
+      <c r="O7" s="127"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="119"/>
-      <c r="V7" s="113" t="s">
+      <c r="T7" s="132"/>
+      <c r="V7" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="W7" s="114"/>
-      <c r="X7" s="115" t="s">
+      <c r="W7" s="127"/>
+      <c r="X7" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="118" t="s">
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AB7" s="119"/>
+      <c r="AB7" s="132"/>
     </row>
     <row r="8" spans="2:28" ht="16" thickBot="1">
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="137"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="150"/>
     </row>
     <row r="9" spans="2:28" ht="16" thickBot="1">
-      <c r="B9" s="102"/>
-      <c r="C9" s="102" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="172">
+      <c r="D9" s="138"/>
+      <c r="E9" s="185">
         <v>2</v>
       </c>
-      <c r="F9" s="145"/>
-      <c r="G9" s="162">
+      <c r="F9" s="158"/>
+      <c r="G9" s="175">
         <v>4</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="138">
+      <c r="H9" s="176"/>
+      <c r="I9" s="151">
         <v>6</v>
       </c>
-      <c r="J9" s="139"/>
-      <c r="N9" s="120" t="s">
+      <c r="J9" s="152"/>
+      <c r="N9" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="121"/>
-      <c r="P9" s="103" t="s">
+      <c r="O9" s="134"/>
+      <c r="P9" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="105"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="118"/>
     </row>
     <row r="10" spans="2:28">
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-      <c r="N10" s="126" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
+      <c r="N10" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="127"/>
-      <c r="P10" s="122" t="s">
+      <c r="O10" s="140"/>
+      <c r="P10" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="128" t="s">
+      <c r="Q10" s="136"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="129"/>
+      <c r="T10" s="142"/>
     </row>
     <row r="11" spans="2:28">
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
-      <c r="N11" s="106" t="s">
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
+      <c r="N11" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="107"/>
-      <c r="P11" s="108" t="s">
+      <c r="O11" s="120"/>
+      <c r="P11" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="111" t="s">
+      <c r="Q11" s="122"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="112"/>
+      <c r="T11" s="125"/>
     </row>
     <row r="12" spans="2:28" ht="16" thickBot="1">
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-      <c r="N12" s="113" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
+      <c r="N12" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="114"/>
-      <c r="P12" s="115" t="s">
+      <c r="O12" s="127"/>
+      <c r="P12" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="118" t="s">
+      <c r="Q12" s="129"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="119"/>
+      <c r="T12" s="132"/>
     </row>
     <row r="13" spans="2:28" ht="16" thickBot="1">
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="176"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="156"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1">
-      <c r="B14" s="102"/>
-      <c r="C14" s="102" t="s">
+      <c r="B14" s="115"/>
+      <c r="C14" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="150">
+      <c r="D14" s="138"/>
+      <c r="E14" s="163">
         <v>1</v>
       </c>
-      <c r="F14" s="151"/>
-      <c r="G14" s="144">
+      <c r="F14" s="164"/>
+      <c r="G14" s="157">
         <v>2</v>
       </c>
-      <c r="H14" s="145"/>
-      <c r="I14" s="156">
+      <c r="H14" s="158"/>
+      <c r="I14" s="169">
         <v>3</v>
       </c>
-      <c r="J14" s="157"/>
+      <c r="J14" s="170"/>
     </row>
     <row r="15" spans="2:28">
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="159"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="172"/>
     </row>
     <row r="16" spans="2:28">
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="2:12" ht="16" thickBot="1">
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="161"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="174"/>
       <c r="K18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="10.25" customHeight="1" thickTop="1">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="130" t="s">
+      <c r="E19" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130" t="s">
+      <c r="F19" s="143"/>
+      <c r="G19" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130" t="s">
+      <c r="H19" s="143"/>
+      <c r="I19" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="130"/>
+      <c r="J19" s="143"/>
       <c r="L19" t="s">
         <v>18</v>
       </c>
@@ -7492,37 +7522,37 @@
     <row r="20" spans="2:12" ht="14.25" customHeight="1">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="22.25" customHeight="1">
@@ -7691,212 +7721,212 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="168">
+      <c r="D5" s="138"/>
+      <c r="E5" s="181">
         <v>3</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="138">
+      <c r="F5" s="170"/>
+      <c r="G5" s="151">
         <v>6</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="132">
+      <c r="H5" s="152"/>
+      <c r="I5" s="145">
         <v>9</v>
       </c>
-      <c r="J5" s="133"/>
+      <c r="J5" s="146"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148"/>
     </row>
     <row r="9" spans="2:10" ht="16" thickBot="1">
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="102"/>
-      <c r="C10" s="102" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="172">
+      <c r="D10" s="138"/>
+      <c r="E10" s="185">
         <v>2</v>
       </c>
-      <c r="F10" s="145"/>
-      <c r="G10" s="162">
+      <c r="F10" s="158"/>
+      <c r="G10" s="175">
         <v>4</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="138">
+      <c r="H10" s="176"/>
+      <c r="I10" s="151">
         <v>6</v>
       </c>
-      <c r="J10" s="139"/>
+      <c r="J10" s="152"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="154"/>
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1">
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="143"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="156"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="102"/>
-      <c r="C15" s="102" t="s">
+      <c r="B15" s="115"/>
+      <c r="C15" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="125"/>
-      <c r="E15" s="150">
+      <c r="D15" s="138"/>
+      <c r="E15" s="163">
         <v>1</v>
       </c>
-      <c r="F15" s="151"/>
-      <c r="G15" s="144">
+      <c r="F15" s="164"/>
+      <c r="G15" s="157">
         <v>2</v>
       </c>
-      <c r="H15" s="145"/>
-      <c r="I15" s="156">
+      <c r="H15" s="158"/>
+      <c r="I15" s="169">
         <v>3</v>
       </c>
-      <c r="J15" s="157"/>
+      <c r="J15" s="170"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="2:12" ht="16" thickBot="1">
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="161"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="174"/>
       <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="16" thickTop="1">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="130" t="s">
+      <c r="E20" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130" t="s">
+      <c r="F20" s="143"/>
+      <c r="G20" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130" t="s">
+      <c r="H20" s="143"/>
+      <c r="I20" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="130"/>
+      <c r="J20" s="143"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
@@ -7904,37 +7934,37 @@
     <row r="21" spans="2:12">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
       <c r="K23" s="1"/>
     </row>
   </sheetData>

--- a/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
+++ b/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausschwegler/OneDrive/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/Statusberichte/Tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FD929E0E-7C25-EA4A-9596-EEF67940F538}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{CE375B4B-CC34-2443-95AA-8D955A4BC573}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Legende!$O$3:$T$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Matrix!$N$4:$T$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Matrixverschiebungen!$B$3:$L$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Risiko!$B$1:$M$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Risiko!$B$2:$M$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Übersicht!$B$2:$C$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
   <si>
     <t>A</t>
   </si>
@@ -1658,28 +1658,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1754,233 +1757,230 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4921,7 +4921,7 @@
   <dimension ref="B1:N107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B2" sqref="B2:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4940,28 +4940,24 @@
     <col min="16" max="16" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1">
-      <c r="K1" t="s">
-        <v>112</v>
-      </c>
-    </row>
+    <row r="1" spans="2:14" ht="16" thickBot="1"/>
     <row r="2" spans="2:14" ht="32" customHeight="1" thickBot="1">
       <c r="B2" s="66"/>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="88" t="s">
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="2:14" ht="32" customHeight="1" thickBot="1">
@@ -4993,10 +4989,10 @@
         <v>111</v>
       </c>
       <c r="K3" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="52" t="s">
         <v>113</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>112</v>
       </c>
       <c r="M3" s="53" t="s">
         <v>114</v>
@@ -5315,10 +5311,10 @@
     </row>
     <row r="14" spans="2:14" ht="51" customHeight="1">
       <c r="B14" s="85"/>
-      <c r="C14" s="87"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="69"/>
       <c r="E14" s="42"/>
-      <c r="F14" s="87"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="42"/>
       <c r="H14" s="55"/>
       <c r="I14" s="85"/>
@@ -5326,74 +5322,74 @@
       <c r="K14" s="68"/>
       <c r="L14" s="85"/>
       <c r="M14" s="85"/>
-      <c r="N14" s="86"/>
+      <c r="N14" s="89"/>
     </row>
     <row r="15" spans="2:14" ht="39.75" customHeight="1">
       <c r="B15" s="85"/>
-      <c r="C15" s="87"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="69"/>
       <c r="E15" s="42"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="55"/>
       <c r="I15" s="85"/>
       <c r="J15" s="85"/>
       <c r="K15" s="68"/>
       <c r="L15" s="85"/>
       <c r="M15" s="85"/>
-      <c r="N15" s="86"/>
+      <c r="N15" s="89"/>
     </row>
     <row r="16" spans="2:14" ht="48" customHeight="1">
       <c r="B16" s="85"/>
-      <c r="C16" s="87"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="69"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="55"/>
       <c r="I16" s="85"/>
       <c r="J16" s="85"/>
       <c r="K16" s="68"/>
       <c r="L16" s="85"/>
       <c r="M16" s="85"/>
-      <c r="N16" s="86"/>
+      <c r="N16" s="89"/>
     </row>
     <row r="17" spans="2:14" ht="50" customHeight="1">
       <c r="B17" s="85"/>
-      <c r="C17" s="87"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="69"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="55"/>
       <c r="I17" s="85"/>
       <c r="J17" s="85"/>
       <c r="K17" s="68"/>
       <c r="L17" s="85"/>
       <c r="M17" s="85"/>
-      <c r="N17" s="86"/>
+      <c r="N17" s="89"/>
     </row>
     <row r="18" spans="2:14" ht="44.5" customHeight="1">
       <c r="B18" s="85"/>
-      <c r="C18" s="87"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="69"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
       <c r="H18" s="55"/>
       <c r="I18" s="85"/>
       <c r="J18" s="85"/>
       <c r="K18" s="68"/>
       <c r="L18" s="85"/>
       <c r="M18" s="85"/>
-      <c r="N18" s="86"/>
+      <c r="N18" s="89"/>
     </row>
     <row r="19" spans="2:14" ht="36.75" customHeight="1">
       <c r="B19" s="85"/>
-      <c r="C19" s="87"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="69"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="87"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="85"/>
@@ -5401,14 +5397,14 @@
       <c r="K19" s="68"/>
       <c r="L19" s="85"/>
       <c r="M19" s="85"/>
-      <c r="N19" s="86"/>
+      <c r="N19" s="89"/>
     </row>
     <row r="20" spans="2:14" ht="59" customHeight="1">
       <c r="B20" s="85"/>
-      <c r="C20" s="87"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="69"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="87"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="42"/>
       <c r="H20" s="55"/>
       <c r="I20" s="85"/>
@@ -5416,14 +5412,14 @@
       <c r="K20" s="68"/>
       <c r="L20" s="85"/>
       <c r="M20" s="85"/>
-      <c r="N20" s="86"/>
+      <c r="N20" s="89"/>
     </row>
     <row r="21" spans="2:14" ht="51" customHeight="1">
       <c r="B21" s="85"/>
-      <c r="C21" s="87"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="69"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="42"/>
       <c r="H21" s="55"/>
       <c r="I21" s="85"/>
@@ -5431,14 +5427,14 @@
       <c r="K21" s="68"/>
       <c r="L21" s="85"/>
       <c r="M21" s="85"/>
-      <c r="N21" s="86"/>
+      <c r="N21" s="89"/>
     </row>
     <row r="22" spans="2:14" ht="32" customHeight="1">
       <c r="B22" s="85"/>
-      <c r="C22" s="87"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="69"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
       <c r="I22" s="85"/>
@@ -5449,10 +5445,10 @@
     </row>
     <row r="23" spans="2:14" ht="41.75" customHeight="1">
       <c r="B23" s="85"/>
-      <c r="C23" s="87"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="69"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="85"/>
@@ -5463,10 +5459,10 @@
     </row>
     <row r="24" spans="2:14" ht="67.25" customHeight="1">
       <c r="B24" s="85"/>
-      <c r="C24" s="87"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="69"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="87"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="42"/>
       <c r="H24" s="55"/>
       <c r="I24" s="85"/>
@@ -5476,7 +5472,7 @@
       <c r="M24" s="85"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="83"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -5490,7 +5486,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="84"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5504,7 +5500,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="84"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6685,6 +6681,29 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="M14:M16"/>
     <mergeCell ref="C14:C16"/>
@@ -6699,29 +6718,6 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="M22:M24"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -6732,7 +6728,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.78740157480314998" bottom="0.78740157480314998" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6887,30 +6883,30 @@
   <sheetData>
     <row r="2" spans="2:20" ht="16" thickBot="1"/>
     <row r="3" spans="2:20" ht="21" thickBot="1">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
-      <c r="H3" s="109" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="H3" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111"/>
-      <c r="O3" s="99" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
+      <c r="O3" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="102" t="s">
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="103"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="2:20" ht="18">
       <c r="B4" s="20" t="s">
@@ -6992,19 +6988,19 @@
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
       <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
       <c r="L6" s="13" t="s">
         <v>33</v>
       </c>
@@ -7014,11 +7010,11 @@
       <c r="O6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="104" t="s">
+      <c r="P6" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="106"/>
       <c r="S6" s="37" t="s">
         <v>50</v>
       </c>
@@ -7078,19 +7074,19 @@
       <c r="B9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="O9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="106" t="s">
+      <c r="P9" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="109"/>
       <c r="S9" s="38" t="s">
         <v>55</v>
       </c>
@@ -7157,364 +7153,364 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="189" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="181">
+      <c r="D4" s="190"/>
+      <c r="E4" s="159">
         <v>3</v>
       </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="151">
+      <c r="F4" s="148"/>
+      <c r="G4" s="129">
         <v>6</v>
       </c>
-      <c r="H4" s="152"/>
-      <c r="I4" s="145">
+      <c r="H4" s="130"/>
+      <c r="I4" s="123">
         <v>9</v>
       </c>
-      <c r="J4" s="146"/>
-      <c r="N4" s="133" t="s">
+      <c r="J4" s="124"/>
+      <c r="N4" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="134"/>
-      <c r="P4" s="116" t="s">
+      <c r="O4" s="118"/>
+      <c r="P4" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="118"/>
-      <c r="V4" s="133" t="s">
+      <c r="Q4" s="187"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="188"/>
+      <c r="V4" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="134"/>
-      <c r="X4" s="116" t="s">
+      <c r="W4" s="118"/>
+      <c r="X4" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="118"/>
+      <c r="Y4" s="187"/>
+      <c r="Z4" s="187"/>
+      <c r="AA4" s="187"/>
+      <c r="AB4" s="188"/>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1">
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
-      <c r="N5" s="139" t="s">
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="126"/>
+      <c r="N5" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="140"/>
-      <c r="P5" s="135" t="s">
+      <c r="O5" s="176"/>
+      <c r="P5" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="141" t="s">
+      <c r="Q5" s="178"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="142"/>
-      <c r="V5" s="139" t="s">
+      <c r="T5" s="120"/>
+      <c r="V5" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="140"/>
-      <c r="X5" s="135" t="s">
+      <c r="W5" s="176"/>
+      <c r="X5" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="141" t="s">
+      <c r="Y5" s="178"/>
+      <c r="Z5" s="179"/>
+      <c r="AA5" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="AB5" s="142"/>
+      <c r="AB5" s="120"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
-      <c r="N6" s="119" t="s">
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
+      <c r="N6" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="120"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="124" t="s">
+      <c r="O6" s="168"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="181"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="125"/>
-      <c r="V6" s="119" t="s">
+      <c r="T6" s="170"/>
+      <c r="V6" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="120"/>
-      <c r="X6" s="121" t="s">
+      <c r="W6" s="168"/>
+      <c r="X6" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="124" t="s">
+      <c r="Y6" s="181"/>
+      <c r="Z6" s="182"/>
+      <c r="AA6" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="AB6" s="125"/>
+      <c r="AB6" s="170"/>
     </row>
     <row r="7" spans="2:28" ht="16" thickBot="1">
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
-      <c r="N7" s="126" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
+      <c r="N7" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="127"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="131" t="s">
+      <c r="O7" s="172"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="132"/>
-      <c r="V7" s="126" t="s">
+      <c r="T7" s="174"/>
+      <c r="V7" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="W7" s="127"/>
-      <c r="X7" s="128" t="s">
+      <c r="W7" s="172"/>
+      <c r="X7" s="183" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="131" t="s">
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="AB7" s="132"/>
+      <c r="AB7" s="174"/>
     </row>
     <row r="8" spans="2:28" ht="16" thickBot="1">
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="150"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128"/>
     </row>
     <row r="9" spans="2:28" ht="16" thickBot="1">
-      <c r="B9" s="115"/>
-      <c r="C9" s="115" t="s">
+      <c r="B9" s="189"/>
+      <c r="C9" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="185">
+      <c r="D9" s="190"/>
+      <c r="E9" s="163">
         <v>2</v>
       </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="175">
+      <c r="F9" s="136"/>
+      <c r="G9" s="153">
         <v>4</v>
       </c>
-      <c r="H9" s="176"/>
-      <c r="I9" s="151">
+      <c r="H9" s="154"/>
+      <c r="I9" s="129">
         <v>6</v>
       </c>
-      <c r="J9" s="152"/>
-      <c r="N9" s="133" t="s">
+      <c r="J9" s="130"/>
+      <c r="N9" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="134"/>
-      <c r="P9" s="116" t="s">
+      <c r="O9" s="118"/>
+      <c r="P9" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="118"/>
+      <c r="Q9" s="187"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="188"/>
     </row>
     <row r="10" spans="2:28">
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
-      <c r="N10" s="139" t="s">
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
+      <c r="N10" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="140"/>
-      <c r="P10" s="135" t="s">
+      <c r="O10" s="176"/>
+      <c r="P10" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="136"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="141" t="s">
+      <c r="Q10" s="178"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="142"/>
+      <c r="T10" s="120"/>
     </row>
     <row r="11" spans="2:28">
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
-      <c r="N11" s="119" t="s">
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
+      <c r="N11" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="120"/>
-      <c r="P11" s="121" t="s">
+      <c r="O11" s="168"/>
+      <c r="P11" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="124" t="s">
+      <c r="Q11" s="181"/>
+      <c r="R11" s="182"/>
+      <c r="S11" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="125"/>
+      <c r="T11" s="170"/>
     </row>
     <row r="12" spans="2:28" ht="16" thickBot="1">
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
-      <c r="N12" s="126" t="s">
+      <c r="B12" s="189"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
+      <c r="N12" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="127"/>
-      <c r="P12" s="128" t="s">
+      <c r="O12" s="172"/>
+      <c r="P12" s="183" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="131" t="s">
+      <c r="Q12" s="184"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="132"/>
+      <c r="T12" s="174"/>
     </row>
     <row r="13" spans="2:28" ht="16" thickBot="1">
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="156"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
-      <c r="O13" s="189"/>
-      <c r="P13" s="189"/>
-      <c r="Q13" s="189"/>
-      <c r="R13" s="189"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1">
-      <c r="B14" s="115"/>
-      <c r="C14" s="115" t="s">
+      <c r="B14" s="189"/>
+      <c r="C14" s="189" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="163">
+      <c r="D14" s="190"/>
+      <c r="E14" s="141">
         <v>1</v>
       </c>
-      <c r="F14" s="164"/>
-      <c r="G14" s="157">
+      <c r="F14" s="142"/>
+      <c r="G14" s="135">
         <v>2</v>
       </c>
-      <c r="H14" s="158"/>
-      <c r="I14" s="169">
+      <c r="H14" s="136"/>
+      <c r="I14" s="147">
         <v>3</v>
       </c>
-      <c r="J14" s="170"/>
+      <c r="J14" s="148"/>
     </row>
     <row r="15" spans="2:28">
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="172"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="150"/>
     </row>
     <row r="16" spans="2:28">
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="2:12" ht="16" thickBot="1">
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="174"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
       <c r="K18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="10.25" customHeight="1" thickTop="1">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="143" t="s">
+      <c r="E19" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143" t="s">
+      <c r="F19" s="121"/>
+      <c r="G19" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143" t="s">
+      <c r="H19" s="121"/>
+      <c r="I19" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="143"/>
+      <c r="J19" s="121"/>
       <c r="L19" t="s">
         <v>18</v>
       </c>
@@ -7522,37 +7518,37 @@
     <row r="20" spans="2:12" ht="14.25" customHeight="1">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="22.25" customHeight="1">
@@ -7628,41 +7624,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="I4:J8"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="G14:H18"/>
-    <mergeCell ref="E14:F18"/>
-    <mergeCell ref="I14:J18"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="E4:F8"/>
-    <mergeCell ref="G4:H8"/>
-    <mergeCell ref="E9:F13"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="E21:J22"/>
     <mergeCell ref="B4:B18"/>
     <mergeCell ref="P9:T9"/>
@@ -7679,6 +7640,41 @@
     <mergeCell ref="C9:D13"/>
     <mergeCell ref="C4:D8"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="I4:J8"/>
+    <mergeCell ref="I9:J13"/>
+    <mergeCell ref="G14:H18"/>
+    <mergeCell ref="E14:F18"/>
+    <mergeCell ref="I14:J18"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="E4:F8"/>
+    <mergeCell ref="G4:H8"/>
+    <mergeCell ref="E9:F13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="S10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="150" orientation="portrait" r:id="rId1"/>
@@ -7721,212 +7717,212 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="189" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="181">
+      <c r="D5" s="190"/>
+      <c r="E5" s="159">
         <v>3</v>
       </c>
-      <c r="F5" s="170"/>
-      <c r="G5" s="151">
+      <c r="F5" s="148"/>
+      <c r="G5" s="129">
         <v>6</v>
       </c>
-      <c r="H5" s="152"/>
-      <c r="I5" s="145">
+      <c r="H5" s="130"/>
+      <c r="I5" s="123">
         <v>9</v>
       </c>
-      <c r="J5" s="146"/>
+      <c r="J5" s="124"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="148"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="126"/>
     </row>
     <row r="9" spans="2:10" ht="16" thickBot="1">
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="115"/>
-      <c r="C10" s="115" t="s">
+      <c r="B10" s="189"/>
+      <c r="C10" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="185">
+      <c r="D10" s="190"/>
+      <c r="E10" s="163">
         <v>2</v>
       </c>
-      <c r="F10" s="158"/>
-      <c r="G10" s="175">
+      <c r="F10" s="136"/>
+      <c r="G10" s="153">
         <v>4</v>
       </c>
-      <c r="H10" s="176"/>
-      <c r="I10" s="151">
+      <c r="H10" s="154"/>
+      <c r="I10" s="129">
         <v>6</v>
       </c>
-      <c r="J10" s="152"/>
+      <c r="J10" s="130"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="154"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132"/>
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1">
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="156"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="115"/>
-      <c r="C15" s="115" t="s">
+      <c r="B15" s="189"/>
+      <c r="C15" s="189" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="138"/>
-      <c r="E15" s="163">
+      <c r="D15" s="190"/>
+      <c r="E15" s="141">
         <v>1</v>
       </c>
-      <c r="F15" s="164"/>
-      <c r="G15" s="157">
+      <c r="F15" s="142"/>
+      <c r="G15" s="135">
         <v>2</v>
       </c>
-      <c r="H15" s="158"/>
-      <c r="I15" s="169">
+      <c r="H15" s="136"/>
+      <c r="I15" s="147">
         <v>3</v>
       </c>
-      <c r="J15" s="170"/>
+      <c r="J15" s="148"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="2:12" ht="16" thickBot="1">
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="174"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="152"/>
       <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="16" thickTop="1">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="143" t="s">
+      <c r="E20" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143" t="s">
+      <c r="F20" s="121"/>
+      <c r="G20" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143" t="s">
+      <c r="H20" s="121"/>
+      <c r="I20" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="143"/>
+      <c r="J20" s="121"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
@@ -7934,41 +7930,48 @@
     <row r="21" spans="2:12">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
       <c r="K23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="E15:F19"/>
+    <mergeCell ref="G15:H19"/>
+    <mergeCell ref="I15:J19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
     <mergeCell ref="B5:B19"/>
     <mergeCell ref="C5:D9"/>
     <mergeCell ref="E5:F9"/>
@@ -7979,13 +7982,6 @@
     <mergeCell ref="G10:H14"/>
     <mergeCell ref="I10:J14"/>
     <mergeCell ref="C15:D19"/>
-    <mergeCell ref="E22:J23"/>
-    <mergeCell ref="E15:F19"/>
-    <mergeCell ref="G15:H19"/>
-    <mergeCell ref="I15:J19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="180" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
+++ b/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausschwegler/OneDrive/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/Statusberichte/Tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{CE375B4B-CC34-2443-95AA-8D955A4BC573}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E0DD180F-43B6-9147-8956-18CF98662A17}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,9 +438,6 @@
     <t>Projektmitglied meldet ein Fehlendes AP</t>
   </si>
   <si>
-    <t>Zeiterffassung weisst grosse Diskrepanz zu Budget auf</t>
-  </si>
-  <si>
     <t>Arbeiten werden mehrmals ausgeführt</t>
   </si>
   <si>
@@ -454,13 +451,16 @@
   </si>
   <si>
     <t>Risikoüberwachung</t>
+  </si>
+  <si>
+    <t>Zeiterfassung weisst grosse Diskrepanz zu Budget auf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1416,7 +1416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1658,31 +1658,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,230 +1757,233 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4920,11 +4923,11 @@
   </sheetPr>
   <dimension ref="B1:N107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" zoomScale="125" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" style="2" customWidth="1"/>
@@ -4940,27 +4943,27 @@
     <col min="16" max="16" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1"/>
-    <row r="2" spans="2:14" ht="32" customHeight="1" thickBot="1">
+    <row r="1" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66"/>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="40"/>
     </row>
-    <row r="3" spans="2:14" ht="32" customHeight="1" thickBot="1">
+    <row r="3" spans="2:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="51" t="s">
         <v>14</v>
       </c>
@@ -4999,7 +5002,7 @@
       </c>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="2:14" ht="68" customHeight="1" thickBot="1">
+    <row r="4" spans="2:14" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
@@ -5024,13 +5027,13 @@
       <c r="I4" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="81"/>
+      <c r="J4" s="191"/>
       <c r="K4" s="75"/>
       <c r="L4" s="82"/>
       <c r="M4" s="48"/>
       <c r="N4" s="56"/>
     </row>
-    <row r="5" spans="2:14" ht="68" customHeight="1" thickBot="1">
+    <row r="5" spans="2:14" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -5061,7 +5064,7 @@
       <c r="M5" s="48"/>
       <c r="N5" s="56"/>
     </row>
-    <row r="6" spans="2:14" ht="59" customHeight="1" thickBot="1">
+    <row r="6" spans="2:14" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
         <v>2</v>
       </c>
@@ -5092,7 +5095,7 @@
       <c r="M6" s="48"/>
       <c r="N6" s="47"/>
     </row>
-    <row r="7" spans="2:14" ht="72" customHeight="1" thickBot="1">
+    <row r="7" spans="2:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="60" t="s">
         <v>3</v>
       </c>
@@ -5123,7 +5126,7 @@
       <c r="M7" s="48"/>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="2:14" ht="58" customHeight="1" thickBot="1">
+    <row r="8" spans="2:14" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="60" t="s">
         <v>4</v>
       </c>
@@ -5154,7 +5157,7 @@
       <c r="M8" s="48"/>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="2:14" ht="70" customHeight="1" thickBot="1">
+    <row r="9" spans="2:14" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="60" t="s">
         <v>5</v>
       </c>
@@ -5185,7 +5188,7 @@
       <c r="M9" s="61"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="2:14" ht="58" customHeight="1" thickBot="1">
+    <row r="10" spans="2:14" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="60" t="s">
         <v>6</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="65" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I10" s="78" t="s">
         <v>119</v>
@@ -5216,7 +5219,7 @@
       <c r="M10" s="61"/>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="2:14" ht="55" customHeight="1" thickBot="1">
+    <row r="11" spans="2:14" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="60" t="s">
         <v>7</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>80</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" s="78" t="s">
         <v>119</v>
@@ -5247,7 +5250,7 @@
       <c r="M11" s="61"/>
       <c r="N11" s="41"/>
     </row>
-    <row r="12" spans="2:14" ht="60" customHeight="1" thickBot="1">
+    <row r="12" spans="2:14" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="60" t="s">
         <v>8</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v>103</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I12" s="78" t="s">
         <v>119</v>
@@ -5278,7 +5281,7 @@
       <c r="M12" s="48"/>
       <c r="N12" s="44"/>
     </row>
-    <row r="13" spans="2:14" ht="62" customHeight="1" thickBot="1">
+    <row r="13" spans="2:14" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="60" t="s">
         <v>13</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>105</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="80" t="s">
         <v>119</v>
@@ -5309,12 +5312,12 @@
       <c r="M13" s="62"/>
       <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="2:14" ht="51" customHeight="1">
+    <row r="14" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="69"/>
       <c r="E14" s="42"/>
-      <c r="F14" s="86"/>
+      <c r="F14" s="87"/>
       <c r="G14" s="42"/>
       <c r="H14" s="55"/>
       <c r="I14" s="85"/>
@@ -5322,74 +5325,74 @@
       <c r="K14" s="68"/>
       <c r="L14" s="85"/>
       <c r="M14" s="85"/>
-      <c r="N14" s="89"/>
-    </row>
-    <row r="15" spans="2:14" ht="39.75" customHeight="1">
+      <c r="N14" s="86"/>
+    </row>
+    <row r="15" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="69"/>
       <c r="E15" s="42"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="55"/>
       <c r="I15" s="85"/>
       <c r="J15" s="85"/>
       <c r="K15" s="68"/>
       <c r="L15" s="85"/>
       <c r="M15" s="85"/>
-      <c r="N15" s="89"/>
-    </row>
-    <row r="16" spans="2:14" ht="48" customHeight="1">
+      <c r="N15" s="86"/>
+    </row>
+    <row r="16" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="69"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
       <c r="H16" s="55"/>
       <c r="I16" s="85"/>
       <c r="J16" s="85"/>
       <c r="K16" s="68"/>
       <c r="L16" s="85"/>
       <c r="M16" s="85"/>
-      <c r="N16" s="89"/>
-    </row>
-    <row r="17" spans="2:14" ht="50" customHeight="1">
+      <c r="N16" s="86"/>
+    </row>
+    <row r="17" spans="2:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="69"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
       <c r="H17" s="55"/>
       <c r="I17" s="85"/>
       <c r="J17" s="85"/>
       <c r="K17" s="68"/>
       <c r="L17" s="85"/>
       <c r="M17" s="85"/>
-      <c r="N17" s="89"/>
-    </row>
-    <row r="18" spans="2:14" ht="44.5" customHeight="1">
+      <c r="N17" s="86"/>
+    </row>
+    <row r="18" spans="2:14" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="69"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
       <c r="H18" s="55"/>
       <c r="I18" s="85"/>
       <c r="J18" s="85"/>
       <c r="K18" s="68"/>
       <c r="L18" s="85"/>
       <c r="M18" s="85"/>
-      <c r="N18" s="89"/>
-    </row>
-    <row r="19" spans="2:14" ht="36.75" customHeight="1">
+      <c r="N18" s="86"/>
+    </row>
+    <row r="19" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="69"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="86"/>
+      <c r="F19" s="87"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="85"/>
@@ -5397,14 +5400,14 @@
       <c r="K19" s="68"/>
       <c r="L19" s="85"/>
       <c r="M19" s="85"/>
-      <c r="N19" s="89"/>
-    </row>
-    <row r="20" spans="2:14" ht="59" customHeight="1">
+      <c r="N19" s="86"/>
+    </row>
+    <row r="20" spans="2:14" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="69"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="86"/>
+      <c r="F20" s="87"/>
       <c r="G20" s="42"/>
       <c r="H20" s="55"/>
       <c r="I20" s="85"/>
@@ -5412,14 +5415,14 @@
       <c r="K20" s="68"/>
       <c r="L20" s="85"/>
       <c r="M20" s="85"/>
-      <c r="N20" s="89"/>
-    </row>
-    <row r="21" spans="2:14" ht="51" customHeight="1">
+      <c r="N20" s="86"/>
+    </row>
+    <row r="21" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="69"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="42"/>
       <c r="H21" s="55"/>
       <c r="I21" s="85"/>
@@ -5427,14 +5430,14 @@
       <c r="K21" s="68"/>
       <c r="L21" s="85"/>
       <c r="M21" s="85"/>
-      <c r="N21" s="89"/>
-    </row>
-    <row r="22" spans="2:14" ht="32" customHeight="1">
+      <c r="N21" s="86"/>
+    </row>
+    <row r="22" spans="2:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="69"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
       <c r="I22" s="85"/>
@@ -5443,12 +5446,12 @@
       <c r="L22" s="85"/>
       <c r="M22" s="85"/>
     </row>
-    <row r="23" spans="2:14" ht="41.75" customHeight="1">
+    <row r="23" spans="2:14" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="69"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="85"/>
@@ -5457,12 +5460,12 @@
       <c r="L23" s="85"/>
       <c r="M23" s="85"/>
     </row>
-    <row r="24" spans="2:14" ht="67.25" customHeight="1">
+    <row r="24" spans="2:14" ht="67.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="69"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="86"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="42"/>
       <c r="H24" s="55"/>
       <c r="I24" s="85"/>
@@ -5471,8 +5474,8 @@
       <c r="L24" s="85"/>
       <c r="M24" s="85"/>
     </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="90"/>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="83"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -5485,8 +5488,8 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="91"/>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="84"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5499,8 +5502,8 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="91"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="84"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -5513,7 +5516,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5527,7 +5530,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5541,7 +5544,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5555,7 +5558,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5569,7 +5572,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5583,7 +5586,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5597,7 +5600,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5611,7 +5614,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5625,7 +5628,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5639,7 +5642,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="30"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5653,7 +5656,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5667,7 +5670,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5681,7 +5684,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5695,7 +5698,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5709,7 +5712,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5723,7 +5726,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5737,7 +5740,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5751,7 +5754,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5765,7 +5768,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5779,7 +5782,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5793,7 +5796,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5807,7 +5810,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5821,7 +5824,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:14" ht="20.75" customHeight="1">
+    <row r="50" spans="2:14" ht="20.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5835,7 +5838,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="20.5" customHeight="1">
+    <row r="51" spans="2:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5849,7 +5852,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="20.5" customHeight="1">
+    <row r="52" spans="2:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -5863,7 +5866,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="20.5" customHeight="1">
+    <row r="53" spans="2:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -5877,7 +5880,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="20.5" customHeight="1">
+    <row r="54" spans="2:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -5891,7 +5894,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="20.5" customHeight="1">
+    <row r="55" spans="2:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -5905,7 +5908,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:14" ht="20.5" customHeight="1">
+    <row r="56" spans="2:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -5919,7 +5922,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:14" ht="20.5" customHeight="1">
+    <row r="57" spans="2:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5933,7 +5936,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -5947,7 +5950,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -5961,7 +5964,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -5975,7 +5978,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="3"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -5989,7 +5992,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="3"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6004,7 +6007,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="3"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6019,7 +6022,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="3"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6034,7 +6037,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="3"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6049,7 +6052,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6064,7 +6067,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="3"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6079,7 +6082,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="3"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6094,7 +6097,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="3"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6109,7 +6112,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="3"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -6124,7 +6127,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="3"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -6139,7 +6142,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="3"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -6154,7 +6157,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="3"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6169,7 +6172,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6184,7 +6187,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="3"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6199,7 +6202,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="3"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6214,7 +6217,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6229,7 +6232,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6244,7 +6247,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="3"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6259,7 +6262,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6274,7 +6277,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="3"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6289,7 +6292,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="3"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -6304,7 +6307,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="3"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6319,7 +6322,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6334,7 +6337,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="3"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6349,7 +6352,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6364,7 +6367,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="3"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -6379,7 +6382,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6394,7 +6397,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="3"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -6409,7 +6412,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="3"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -6424,7 +6427,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="3"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -6439,7 +6442,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="3"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -6454,7 +6457,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="3"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -6469,7 +6472,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -6484,7 +6487,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="3"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -6499,7 +6502,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="3"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -6514,7 +6517,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="3"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -6529,7 +6532,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="3"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -6544,7 +6547,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="3"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -6559,7 +6562,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="3"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -6574,7 +6577,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="3"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -6589,7 +6592,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="3"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -6604,7 +6607,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="3"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -6619,7 +6622,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="3"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -6634,7 +6637,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="3"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -6649,7 +6652,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="3"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -6664,7 +6667,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -6681,29 +6684,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="M14:M16"/>
     <mergeCell ref="C14:C16"/>
@@ -6718,6 +6698,29 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="M22:M24"/>
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -6743,13 +6746,13 @@
       <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16" thickBot="1"/>
-    <row r="2" spans="2:3" ht="16.25" customHeight="1" thickTop="1">
+    <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="16.25" customHeight="1">
+    <row r="3" spans="2:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
@@ -6766,7 +6769,7 @@
         <v>Projektleiter fällt kurzfristig aus</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="16.25" customHeight="1">
+    <row r="4" spans="2:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>Projektleiter fällt lanfristig aus</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16.25" customHeight="1">
+    <row r="5" spans="2:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>Teammitglied fällt kurzfristig aus</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="16.25" customHeight="1">
+    <row r="6" spans="2:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>Teammitglied fällt langfristig aus</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16.25" customHeight="1">
+    <row r="7" spans="2:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
@@ -6802,7 +6805,7 @@
         <v>Soziale Spannungen im Team</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="16.25" customHeight="1">
+    <row r="8" spans="2:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
@@ -6811,7 +6814,7 @@
         <v>Strukturplan unvollständig</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16.25" customHeight="1">
+    <row r="9" spans="2:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
@@ -6820,7 +6823,7 @@
         <v>Zeiten der APs sind zu knapp kalkuliert</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="16.25" customHeight="1">
+    <row r="10" spans="2:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
@@ -6829,7 +6832,7 @@
         <v>APs zu anspruchsvoll</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="16.25" customHeight="1">
+    <row r="11" spans="2:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>Auftrag ist unklar definiert</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="16.25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:3" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>Datenverlust</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="16" thickTop="1"/>
+    <row r="13" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6865,7 +6868,7 @@
       <selection activeCell="O3" sqref="O3:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
@@ -6881,8 +6884,8 @@
     <col min="20" max="20" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="16" thickBot="1"/>
-    <row r="3" spans="2:20" ht="21" thickBot="1">
+    <row r="2" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="92" t="s">
         <v>48</v>
       </c>
@@ -6908,7 +6911,7 @@
       </c>
       <c r="T3" s="104"/>
     </row>
-    <row r="4" spans="2:20" ht="18">
+    <row r="4" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
         <v>23</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="18">
+    <row r="5" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
         <v>25</v>
       </c>
@@ -6984,7 +6987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="19" thickBot="1">
+    <row r="6" spans="2:20" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="18">
+    <row r="7" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
         <v>29</v>
       </c>
@@ -7046,7 +7049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18">
+    <row r="8" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
@@ -7070,7 +7073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="19" thickBot="1">
+    <row r="9" spans="2:20" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>33</v>
       </c>
@@ -7120,7 +7123,7 @@
       <selection activeCell="N4" sqref="N4:T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
@@ -7135,14 +7138,14 @@
     <col min="28" max="28" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="22" customHeight="1"/>
-    <row r="2" spans="2:28" ht="13.5" customHeight="1">
+    <row r="1" spans="2:28" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="59"/>
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:28" ht="14.5" customHeight="1" thickBot="1">
+    <row r="3" spans="2:28" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="58"/>
@@ -7152,441 +7155,441 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="189" t="s">
+    <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="190"/>
-      <c r="E4" s="159">
+      <c r="D4" s="139"/>
+      <c r="E4" s="182">
         <v>3</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="129">
+      <c r="F4" s="171"/>
+      <c r="G4" s="152">
         <v>6</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="123">
+      <c r="H4" s="153"/>
+      <c r="I4" s="146">
         <v>9</v>
       </c>
-      <c r="J4" s="124"/>
-      <c r="N4" s="117" t="s">
+      <c r="J4" s="147"/>
+      <c r="N4" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="118"/>
-      <c r="P4" s="186" t="s">
+      <c r="O4" s="135"/>
+      <c r="P4" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="187"/>
-      <c r="R4" s="187"/>
-      <c r="S4" s="187"/>
-      <c r="T4" s="188"/>
-      <c r="V4" s="117" t="s">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="119"/>
+      <c r="V4" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="118"/>
-      <c r="X4" s="186" t="s">
+      <c r="W4" s="135"/>
+      <c r="X4" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="Y4" s="187"/>
-      <c r="Z4" s="187"/>
-      <c r="AA4" s="187"/>
-      <c r="AB4" s="188"/>
-    </row>
-    <row r="5" spans="2:28" ht="15" customHeight="1">
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
-      <c r="N5" s="175" t="s">
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="119"/>
+    </row>
+    <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
+      <c r="N5" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="176"/>
-      <c r="P5" s="177" t="s">
+      <c r="O5" s="141"/>
+      <c r="P5" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="178"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="119" t="s">
+      <c r="Q5" s="137"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="120"/>
-      <c r="V5" s="175" t="s">
+      <c r="T5" s="143"/>
+      <c r="V5" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="176"/>
-      <c r="X5" s="177" t="s">
+      <c r="W5" s="141"/>
+      <c r="X5" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="Y5" s="178"/>
-      <c r="Z5" s="179"/>
-      <c r="AA5" s="119" t="s">
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="138"/>
+      <c r="AA5" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="AB5" s="120"/>
-    </row>
-    <row r="6" spans="2:28">
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
-      <c r="N6" s="167" t="s">
+      <c r="AB5" s="143"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
+      <c r="N6" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="168"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="181"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="169" t="s">
+      <c r="O6" s="121"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="170"/>
-      <c r="V6" s="167" t="s">
+      <c r="T6" s="126"/>
+      <c r="V6" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="168"/>
-      <c r="X6" s="180" t="s">
+      <c r="W6" s="121"/>
+      <c r="X6" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="181"/>
-      <c r="Z6" s="182"/>
-      <c r="AA6" s="169" t="s">
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="124"/>
+      <c r="AA6" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="AB6" s="170"/>
-    </row>
-    <row r="7" spans="2:28" ht="16" thickBot="1">
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="126"/>
-      <c r="N7" s="171" t="s">
+      <c r="AB6" s="126"/>
+    </row>
+    <row r="7" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
+      <c r="N7" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="172"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="173" t="s">
+      <c r="O7" s="128"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="174"/>
-      <c r="V7" s="171" t="s">
+      <c r="T7" s="133"/>
+      <c r="V7" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="W7" s="172"/>
-      <c r="X7" s="183" t="s">
+      <c r="W7" s="128"/>
+      <c r="X7" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" s="184"/>
-      <c r="Z7" s="185"/>
-      <c r="AA7" s="173" t="s">
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="AB7" s="174"/>
-    </row>
-    <row r="8" spans="2:28" ht="16" thickBot="1">
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="128"/>
-    </row>
-    <row r="9" spans="2:28" ht="16" thickBot="1">
-      <c r="B9" s="189"/>
-      <c r="C9" s="189" t="s">
+      <c r="AB7" s="133"/>
+    </row>
+    <row r="8" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="151"/>
+    </row>
+    <row r="9" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="116"/>
+      <c r="C9" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="190"/>
-      <c r="E9" s="163">
+      <c r="D9" s="139"/>
+      <c r="E9" s="186">
         <v>2</v>
       </c>
-      <c r="F9" s="136"/>
-      <c r="G9" s="153">
+      <c r="F9" s="159"/>
+      <c r="G9" s="176">
         <v>4</v>
       </c>
-      <c r="H9" s="154"/>
-      <c r="I9" s="129">
+      <c r="H9" s="177"/>
+      <c r="I9" s="152">
         <v>6</v>
       </c>
-      <c r="J9" s="130"/>
-      <c r="N9" s="117" t="s">
+      <c r="J9" s="153"/>
+      <c r="N9" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="118"/>
-      <c r="P9" s="186" t="s">
+      <c r="O9" s="135"/>
+      <c r="P9" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" s="187"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="187"/>
-      <c r="T9" s="188"/>
-    </row>
-    <row r="10" spans="2:28">
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
-      <c r="N10" s="175" t="s">
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="119"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="155"/>
+      <c r="N10" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="176"/>
-      <c r="P10" s="177" t="s">
+      <c r="O10" s="141"/>
+      <c r="P10" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="119" t="s">
+      <c r="Q10" s="137"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="120"/>
-    </row>
-    <row r="11" spans="2:28">
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
-      <c r="N11" s="167" t="s">
+      <c r="T10" s="143"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="155"/>
+      <c r="N11" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="168"/>
-      <c r="P11" s="180" t="s">
+      <c r="O11" s="121"/>
+      <c r="P11" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="181"/>
-      <c r="R11" s="182"/>
-      <c r="S11" s="169" t="s">
+      <c r="Q11" s="123"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="170"/>
-    </row>
-    <row r="12" spans="2:28" ht="16" thickBot="1">
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
-      <c r="N12" s="171" t="s">
+      <c r="T11" s="126"/>
+    </row>
+    <row r="12" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="155"/>
+      <c r="N12" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="172"/>
-      <c r="P12" s="183" t="s">
+      <c r="O12" s="128"/>
+      <c r="P12" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="173" t="s">
+      <c r="Q12" s="130"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="174"/>
-    </row>
-    <row r="13" spans="2:28" ht="16" thickBot="1">
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-    </row>
-    <row r="14" spans="2:28" ht="15" customHeight="1">
-      <c r="B14" s="189"/>
-      <c r="C14" s="189" t="s">
+      <c r="T12" s="133"/>
+    </row>
+    <row r="13" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="157"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+    </row>
+    <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="116"/>
+      <c r="C14" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="190"/>
-      <c r="E14" s="141">
+      <c r="D14" s="139"/>
+      <c r="E14" s="164">
         <v>1</v>
       </c>
-      <c r="F14" s="142"/>
-      <c r="G14" s="135">
+      <c r="F14" s="165"/>
+      <c r="G14" s="158">
         <v>2</v>
       </c>
-      <c r="H14" s="136"/>
-      <c r="I14" s="147">
+      <c r="H14" s="159"/>
+      <c r="I14" s="170">
         <v>3</v>
       </c>
-      <c r="J14" s="148"/>
-    </row>
-    <row r="15" spans="2:28">
-      <c r="B15" s="189"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="150"/>
-    </row>
-    <row r="16" spans="2:28">
-      <c r="B16" s="189"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
-    </row>
-    <row r="18" spans="2:12" ht="16" thickBot="1">
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
+      <c r="J14" s="171"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="173"/>
+    </row>
+    <row r="18" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="175"/>
       <c r="K18" s="57"/>
     </row>
-    <row r="19" spans="2:12" ht="10.25" customHeight="1" thickTop="1">
+    <row r="19" spans="2:12" ht="10.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="121" t="s">
+      <c r="E19" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121" t="s">
+      <c r="F19" s="144"/>
+      <c r="G19" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121" t="s">
+      <c r="H19" s="144"/>
+      <c r="I19" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="121"/>
+      <c r="J19" s="144"/>
       <c r="L19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="14.25" customHeight="1">
+    <row r="20" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:12" ht="22.25" customHeight="1">
+    <row r="23" spans="2:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:12" ht="14.25" customHeight="1">
+    <row r="25" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:12" ht="14.25" customHeight="1">
+    <row r="30" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -7598,7 +7601,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -7610,7 +7613,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -7624,6 +7627,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="I4:J8"/>
+    <mergeCell ref="I9:J13"/>
+    <mergeCell ref="G14:H18"/>
+    <mergeCell ref="E14:F18"/>
+    <mergeCell ref="I14:J18"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="E4:F8"/>
+    <mergeCell ref="G4:H8"/>
+    <mergeCell ref="E9:F13"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="E21:J22"/>
     <mergeCell ref="B4:B18"/>
     <mergeCell ref="P9:T9"/>
@@ -7640,41 +7678,6 @@
     <mergeCell ref="C9:D13"/>
     <mergeCell ref="C4:D8"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="I4:J8"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="G14:H18"/>
-    <mergeCell ref="E14:F18"/>
-    <mergeCell ref="I14:J18"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="E4:F8"/>
-    <mergeCell ref="G4:H8"/>
-    <mergeCell ref="E9:F13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="S10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="150" orientation="portrait" r:id="rId1"/>
@@ -7690,7 +7693,7 @@
       <selection activeCell="B3" sqref="B3:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="2.83203125" customWidth="1"/>
@@ -7700,13 +7703,13 @@
     <col min="12" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C3" s="59"/>
       <c r="D3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16" thickBot="1">
+    <row r="4" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="58"/>
@@ -7716,262 +7719,255 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="189" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="189" t="s">
+      <c r="C5" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="190"/>
-      <c r="E5" s="159">
+      <c r="D5" s="139"/>
+      <c r="E5" s="182">
         <v>3</v>
       </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="129">
+      <c r="F5" s="171"/>
+      <c r="G5" s="152">
         <v>6</v>
       </c>
-      <c r="H5" s="130"/>
-      <c r="I5" s="123">
+      <c r="H5" s="153"/>
+      <c r="I5" s="146">
         <v>9</v>
       </c>
-      <c r="J5" s="124"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="126"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="126"/>
-    </row>
-    <row r="9" spans="2:10" ht="16" thickBot="1">
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="128"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="189"/>
-      <c r="C10" s="189" t="s">
+      <c r="J5" s="147"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
+    </row>
+    <row r="9" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="151"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="116"/>
+      <c r="C10" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="190"/>
-      <c r="E10" s="163">
+      <c r="D10" s="139"/>
+      <c r="E10" s="186">
         <v>2</v>
       </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="153">
+      <c r="F10" s="159"/>
+      <c r="G10" s="176">
         <v>4</v>
       </c>
-      <c r="H10" s="154"/>
-      <c r="I10" s="129">
+      <c r="H10" s="177"/>
+      <c r="I10" s="152">
         <v>6</v>
       </c>
-      <c r="J10" s="130"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
-    </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1">
-      <c r="B14" s="189"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="189"/>
-      <c r="C15" s="189" t="s">
+      <c r="J10" s="153"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="155"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="155"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="155"/>
+    </row>
+    <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="157"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="116"/>
+      <c r="C15" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="190"/>
-      <c r="E15" s="141">
+      <c r="D15" s="139"/>
+      <c r="E15" s="164">
         <v>1</v>
       </c>
-      <c r="F15" s="142"/>
-      <c r="G15" s="135">
+      <c r="F15" s="165"/>
+      <c r="G15" s="158">
         <v>2</v>
       </c>
-      <c r="H15" s="136"/>
-      <c r="I15" s="147">
+      <c r="H15" s="159"/>
+      <c r="I15" s="170">
         <v>3</v>
       </c>
-      <c r="J15" s="148"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="189"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
-    </row>
-    <row r="19" spans="2:12" ht="16" thickBot="1">
-      <c r="B19" s="189"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
+      <c r="J15" s="171"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="173"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="173"/>
+    </row>
+    <row r="19" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="175"/>
       <c r="K19" s="57"/>
     </row>
-    <row r="20" spans="2:12" ht="16" thickTop="1">
+    <row r="20" spans="2:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121" t="s">
+      <c r="F20" s="144"/>
+      <c r="G20" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121" t="s">
+      <c r="H20" s="144"/>
+      <c r="I20" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="121"/>
+      <c r="J20" s="144"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
       <c r="K23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E22:J23"/>
-    <mergeCell ref="E15:F19"/>
-    <mergeCell ref="G15:H19"/>
-    <mergeCell ref="I15:J19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
     <mergeCell ref="B5:B19"/>
     <mergeCell ref="C5:D9"/>
     <mergeCell ref="E5:F9"/>
@@ -7982,6 +7978,13 @@
     <mergeCell ref="G10:H14"/>
     <mergeCell ref="I10:J14"/>
     <mergeCell ref="C15:D19"/>
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="E15:F19"/>
+    <mergeCell ref="G15:H19"/>
+    <mergeCell ref="I15:J19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="180" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
+++ b/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausschwegler/OneDrive/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/Statusberichte/Tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E0DD180F-43B6-9147-8956-18CF98662A17}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F3547A8C-286E-A64D-BC6D-FF447DA06233}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +618,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AE47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC001"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="64">
     <border>
@@ -1416,7 +1428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1634,15 +1646,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1658,31 +1661,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,232 +1760,235 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2009,12 +2015,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF70AE47"/>
+      <color rgb="FFFFC001"/>
       <color rgb="FF538CD5"/>
       <color rgb="FFFF4F4F"/>
-      <color rgb="FFFFC001"/>
       <color rgb="FF00B14F"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FF70AE47"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4923,8 +4929,8 @@
   </sheetPr>
   <dimension ref="B1:N107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" zoomScale="125" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4946,21 +4952,21 @@
     <row r="1" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66"/>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="88" t="s">
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="2:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5024,12 +5030,12 @@
       <c r="H4" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="191"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="82"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="48"/>
       <c r="N4" s="56"/>
     </row>
@@ -5055,12 +5061,12 @@
       <c r="H5" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="82"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="48"/>
       <c r="N5" s="56"/>
     </row>
@@ -5086,12 +5092,12 @@
       <c r="H6" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="82"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="79"/>
       <c r="M6" s="48"/>
       <c r="N6" s="47"/>
     </row>
@@ -5117,12 +5123,12 @@
       <c r="H7" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="82"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="79"/>
       <c r="M7" s="48"/>
       <c r="N7" s="45"/>
     </row>
@@ -5148,12 +5154,12 @@
       <c r="H8" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="82"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="79"/>
       <c r="M8" s="48"/>
       <c r="N8" s="45"/>
     </row>
@@ -5179,12 +5185,12 @@
       <c r="H9" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="82"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="79"/>
       <c r="M9" s="61"/>
       <c r="N9" s="41"/>
     </row>
@@ -5196,7 +5202,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>101</v>
@@ -5210,12 +5216,12 @@
       <c r="H10" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="82"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="79"/>
       <c r="M10" s="61"/>
       <c r="N10" s="41"/>
     </row>
@@ -5241,12 +5247,12 @@
       <c r="H11" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="82"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="79"/>
       <c r="M11" s="61"/>
       <c r="N11" s="41"/>
     </row>
@@ -5272,12 +5278,12 @@
       <c r="H12" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="82"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="79"/>
       <c r="M12" s="48"/>
       <c r="N12" s="44"/>
     </row>
@@ -5300,182 +5306,182 @@
       <c r="G13" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="79" t="s">
+      <c r="H13" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="I13" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="J13" s="81"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="82"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="79"/>
       <c r="M13" s="62"/>
       <c r="N13" s="44"/>
     </row>
     <row r="14" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="85"/>
-      <c r="C14" s="87"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="69"/>
       <c r="E14" s="42"/>
-      <c r="F14" s="87"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="42"/>
       <c r="H14" s="55"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
       <c r="K14" s="68"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
       <c r="N14" s="86"/>
     </row>
     <row r="15" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="85"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="69"/>
       <c r="E15" s="42"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="55"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
       <c r="N15" s="86"/>
     </row>
     <row r="16" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="85"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="69"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
       <c r="N16" s="86"/>
     </row>
     <row r="17" spans="2:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="85"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="69"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
       <c r="N17" s="86"/>
     </row>
     <row r="18" spans="2:14" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="85"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="69"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="55"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
       <c r="N18" s="86"/>
     </row>
     <row r="19" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="85"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="69"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="87"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
       <c r="N19" s="86"/>
     </row>
     <row r="20" spans="2:14" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="85"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="69"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="87"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="42"/>
       <c r="H20" s="55"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
       <c r="N20" s="86"/>
     </row>
     <row r="21" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="69"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="87"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="42"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
       <c r="N21" s="86"/>
     </row>
     <row r="22" spans="2:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="85"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="69"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
     </row>
     <row r="23" spans="2:14" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="85"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="69"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
       <c r="K23" s="68"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
     </row>
     <row r="24" spans="2:14" ht="67.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="85"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="69"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="87"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="42"/>
       <c r="H24" s="55"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
       <c r="K24" s="68"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="83"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -5489,7 +5495,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="84"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5503,7 +5509,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="84"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6684,6 +6690,29 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="M14:M16"/>
     <mergeCell ref="C14:C16"/>
@@ -6698,29 +6727,6 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="M22:M24"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -6886,30 +6892,30 @@
   <sheetData>
     <row r="2" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="H3" s="110" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="H3" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="112"/>
-      <c r="O3" s="100" t="s">
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="109"/>
+      <c r="O3" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="103" t="s">
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="104"/>
+      <c r="T3" s="101"/>
     </row>
     <row r="4" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
@@ -6991,19 +6997,19 @@
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
       <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="13" t="s">
         <v>33</v>
       </c>
@@ -7013,11 +7019,11 @@
       <c r="O6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="105" t="s">
+      <c r="P6" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="106"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="103"/>
       <c r="S6" s="37" t="s">
         <v>50</v>
       </c>
@@ -7077,19 +7083,19 @@
       <c r="B9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96"/>
       <c r="O9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="107" t="s">
+      <c r="P9" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="109"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="106"/>
       <c r="S9" s="38" t="s">
         <v>55</v>
       </c>
@@ -7156,364 +7162,364 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="186" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="186" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="182">
+      <c r="D4" s="187"/>
+      <c r="E4" s="156">
         <v>3</v>
       </c>
-      <c r="F4" s="171"/>
-      <c r="G4" s="152">
+      <c r="F4" s="145"/>
+      <c r="G4" s="126">
         <v>6</v>
       </c>
-      <c r="H4" s="153"/>
-      <c r="I4" s="146">
+      <c r="H4" s="127"/>
+      <c r="I4" s="120">
         <v>9</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="N4" s="134" t="s">
+      <c r="J4" s="121"/>
+      <c r="N4" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="135"/>
-      <c r="P4" s="117" t="s">
+      <c r="O4" s="115"/>
+      <c r="P4" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="119"/>
-      <c r="V4" s="134" t="s">
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="185"/>
+      <c r="V4" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="135"/>
-      <c r="X4" s="117" t="s">
+      <c r="W4" s="115"/>
+      <c r="X4" s="183" t="s">
         <v>88</v>
       </c>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="119"/>
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="184"/>
+      <c r="AA4" s="184"/>
+      <c r="AB4" s="185"/>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="149"/>
-      <c r="N5" s="140" t="s">
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
+      <c r="N5" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="141"/>
-      <c r="P5" s="136" t="s">
+      <c r="O5" s="173"/>
+      <c r="P5" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="142" t="s">
+      <c r="Q5" s="175"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="143"/>
-      <c r="V5" s="140" t="s">
+      <c r="T5" s="117"/>
+      <c r="V5" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="141"/>
-      <c r="X5" s="136" t="s">
+      <c r="W5" s="173"/>
+      <c r="X5" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="138"/>
-      <c r="AA5" s="142" t="s">
+      <c r="Y5" s="175"/>
+      <c r="Z5" s="176"/>
+      <c r="AA5" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="AB5" s="143"/>
+      <c r="AB5" s="117"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
-      <c r="N6" s="120" t="s">
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="N6" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="121"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="125" t="s">
+      <c r="O6" s="165"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="179"/>
+      <c r="S6" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="126"/>
-      <c r="V6" s="120" t="s">
+      <c r="T6" s="167"/>
+      <c r="V6" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="121"/>
-      <c r="X6" s="122" t="s">
+      <c r="W6" s="165"/>
+      <c r="X6" s="177" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="125" t="s">
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="179"/>
+      <c r="AA6" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="AB6" s="126"/>
+      <c r="AB6" s="167"/>
     </row>
     <row r="7" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
-      <c r="N7" s="127" t="s">
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
+      <c r="N7" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="128"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="132" t="s">
+      <c r="O7" s="169"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="181"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="133"/>
-      <c r="V7" s="127" t="s">
+      <c r="T7" s="171"/>
+      <c r="V7" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="W7" s="128"/>
-      <c r="X7" s="129" t="s">
+      <c r="W7" s="169"/>
+      <c r="X7" s="180" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="132" t="s">
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="AB7" s="133"/>
+      <c r="AB7" s="171"/>
     </row>
     <row r="8" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="151"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
     </row>
     <row r="9" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="116"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="186"/>
+      <c r="C9" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="186">
+      <c r="D9" s="187"/>
+      <c r="E9" s="160">
         <v>2</v>
       </c>
-      <c r="F9" s="159"/>
-      <c r="G9" s="176">
+      <c r="F9" s="133"/>
+      <c r="G9" s="150">
         <v>4</v>
       </c>
-      <c r="H9" s="177"/>
-      <c r="I9" s="152">
+      <c r="H9" s="151"/>
+      <c r="I9" s="126">
         <v>6</v>
       </c>
-      <c r="J9" s="153"/>
-      <c r="N9" s="134" t="s">
+      <c r="J9" s="127"/>
+      <c r="N9" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="135"/>
-      <c r="P9" s="117" t="s">
+      <c r="O9" s="115"/>
+      <c r="P9" s="183" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="119"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="185"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="155"/>
-      <c r="N10" s="140" t="s">
+      <c r="B10" s="186"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="129"/>
+      <c r="N10" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="141"/>
-      <c r="P10" s="136" t="s">
+      <c r="O10" s="173"/>
+      <c r="P10" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="142" t="s">
+      <c r="Q10" s="175"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="143"/>
+      <c r="T10" s="117"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="155"/>
-      <c r="N11" s="120" t="s">
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="129"/>
+      <c r="N11" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="121"/>
-      <c r="P11" s="122" t="s">
+      <c r="O11" s="165"/>
+      <c r="P11" s="177" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="125" t="s">
+      <c r="Q11" s="178"/>
+      <c r="R11" s="179"/>
+      <c r="S11" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="126"/>
+      <c r="T11" s="167"/>
     </row>
     <row r="12" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="155"/>
-      <c r="N12" s="127" t="s">
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
+      <c r="N12" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="128"/>
-      <c r="P12" s="129" t="s">
+      <c r="O12" s="169"/>
+      <c r="P12" s="180" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="132" t="s">
+      <c r="Q12" s="181"/>
+      <c r="R12" s="182"/>
+      <c r="S12" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="133"/>
+      <c r="T12" s="171"/>
     </row>
     <row r="13" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="157"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="190"/>
-      <c r="O13" s="190"/>
-      <c r="P13" s="190"/>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="190"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="116"/>
-      <c r="C14" s="116" t="s">
+      <c r="B14" s="186"/>
+      <c r="C14" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="164">
+      <c r="D14" s="187"/>
+      <c r="E14" s="138">
         <v>1</v>
       </c>
-      <c r="F14" s="165"/>
-      <c r="G14" s="158">
+      <c r="F14" s="139"/>
+      <c r="G14" s="132">
         <v>2</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="170">
+      <c r="H14" s="133"/>
+      <c r="I14" s="144">
         <v>3</v>
       </c>
-      <c r="J14" s="171"/>
+      <c r="J14" s="145"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="173"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="173"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="173"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="149"/>
       <c r="K18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="10.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="144" t="s">
+      <c r="E19" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144" t="s">
+      <c r="F19" s="118"/>
+      <c r="G19" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144" t="s">
+      <c r="H19" s="118"/>
+      <c r="I19" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="144"/>
+      <c r="J19" s="118"/>
       <c r="L19" t="s">
         <v>18</v>
       </c>
@@ -7521,37 +7527,37 @@
     <row r="20" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7627,41 +7633,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="I4:J8"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="G14:H18"/>
-    <mergeCell ref="E14:F18"/>
-    <mergeCell ref="I14:J18"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="E4:F8"/>
-    <mergeCell ref="G4:H8"/>
-    <mergeCell ref="E9:F13"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="E21:J22"/>
     <mergeCell ref="B4:B18"/>
     <mergeCell ref="P9:T9"/>
@@ -7678,6 +7649,41 @@
     <mergeCell ref="C9:D13"/>
     <mergeCell ref="C4:D8"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="I4:J8"/>
+    <mergeCell ref="I9:J13"/>
+    <mergeCell ref="G14:H18"/>
+    <mergeCell ref="E14:F18"/>
+    <mergeCell ref="I14:J18"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="E4:F8"/>
+    <mergeCell ref="G4:H8"/>
+    <mergeCell ref="E9:F13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="S10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="150" orientation="portrait" r:id="rId1"/>
@@ -7720,212 +7726,212 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="186" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="186" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="182">
+      <c r="D5" s="187"/>
+      <c r="E5" s="156">
         <v>3</v>
       </c>
-      <c r="F5" s="171"/>
-      <c r="G5" s="152">
+      <c r="F5" s="145"/>
+      <c r="G5" s="126">
         <v>6</v>
       </c>
-      <c r="H5" s="153"/>
-      <c r="I5" s="146">
+      <c r="H5" s="127"/>
+      <c r="I5" s="120">
         <v>9</v>
       </c>
-      <c r="J5" s="147"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
     </row>
     <row r="9" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="151"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="116"/>
-      <c r="C10" s="116" t="s">
+      <c r="B10" s="186"/>
+      <c r="C10" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="139"/>
-      <c r="E10" s="186">
+      <c r="D10" s="187"/>
+      <c r="E10" s="160">
         <v>2</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="176">
+      <c r="F10" s="133"/>
+      <c r="G10" s="150">
         <v>4</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="152">
+      <c r="H10" s="151"/>
+      <c r="I10" s="126">
         <v>6</v>
       </c>
-      <c r="J10" s="153"/>
+      <c r="J10" s="127"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="155"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="129"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="155"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="155"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="129"/>
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="157"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="116"/>
-      <c r="C15" s="116" t="s">
+      <c r="B15" s="186"/>
+      <c r="C15" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="164">
+      <c r="D15" s="187"/>
+      <c r="E15" s="138">
         <v>1</v>
       </c>
-      <c r="F15" s="165"/>
-      <c r="G15" s="158">
+      <c r="F15" s="139"/>
+      <c r="G15" s="132">
         <v>2</v>
       </c>
-      <c r="H15" s="159"/>
-      <c r="I15" s="170">
+      <c r="H15" s="133"/>
+      <c r="I15" s="144">
         <v>3</v>
       </c>
-      <c r="J15" s="171"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="173"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="173"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="173"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="149"/>
       <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="144" t="s">
+      <c r="E20" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144" t="s">
+      <c r="F20" s="118"/>
+      <c r="G20" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144" t="s">
+      <c r="H20" s="118"/>
+      <c r="I20" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="144"/>
+      <c r="J20" s="118"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
@@ -7933,41 +7939,48 @@
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
       <c r="K23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="E15:F19"/>
+    <mergeCell ref="G15:H19"/>
+    <mergeCell ref="I15:J19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
     <mergeCell ref="B5:B19"/>
     <mergeCell ref="C5:D9"/>
     <mergeCell ref="E5:F9"/>
@@ -7978,13 +7991,6 @@
     <mergeCell ref="G10:H14"/>
     <mergeCell ref="I10:J14"/>
     <mergeCell ref="C15:D19"/>
-    <mergeCell ref="E22:J23"/>
-    <mergeCell ref="E15:F19"/>
-    <mergeCell ref="G15:H19"/>
-    <mergeCell ref="I15:J19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="180" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
+++ b/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausschwegler/OneDrive/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/Statusberichte/Tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F3547A8C-286E-A64D-BC6D-FF447DA06233}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{71AB2A22-7A19-774F-BAC4-8DA330A574D6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1658,34 +1658,37 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1760,235 +1763,232 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4930,7 +4930,7 @@
   <dimension ref="B1:N107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L4" sqref="L4:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4952,21 +4952,21 @@
     <row r="1" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66"/>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="80" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="2:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5033,9 +5033,9 @@
       <c r="I4" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="188"/>
-      <c r="K4" s="188"/>
-      <c r="L4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="189"/>
       <c r="M4" s="48"/>
       <c r="N4" s="56"/>
     </row>
@@ -5065,8 +5065,8 @@
         <v>116</v>
       </c>
       <c r="J5" s="78"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="189"/>
       <c r="M5" s="48"/>
       <c r="N5" s="56"/>
     </row>
@@ -5095,9 +5095,9 @@
       <c r="I6" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="189"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="79"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="189"/>
       <c r="M6" s="48"/>
       <c r="N6" s="47"/>
     </row>
@@ -5127,8 +5127,8 @@
         <v>116</v>
       </c>
       <c r="J7" s="78"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="79"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="189"/>
       <c r="M7" s="48"/>
       <c r="N7" s="45"/>
     </row>
@@ -5158,8 +5158,8 @@
         <v>119</v>
       </c>
       <c r="J8" s="78"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="189"/>
       <c r="M8" s="48"/>
       <c r="N8" s="45"/>
     </row>
@@ -5189,8 +5189,8 @@
         <v>119</v>
       </c>
       <c r="J9" s="78"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="189"/>
       <c r="M9" s="61"/>
       <c r="N9" s="41"/>
     </row>
@@ -5220,8 +5220,8 @@
         <v>119</v>
       </c>
       <c r="J10" s="78"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="189"/>
       <c r="M10" s="61"/>
       <c r="N10" s="41"/>
     </row>
@@ -5251,8 +5251,8 @@
         <v>119</v>
       </c>
       <c r="J11" s="78"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="189"/>
       <c r="M11" s="61"/>
       <c r="N11" s="41"/>
     </row>
@@ -5282,8 +5282,8 @@
         <v>119</v>
       </c>
       <c r="J12" s="78"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="189"/>
       <c r="M12" s="48"/>
       <c r="N12" s="44"/>
     </row>
@@ -5313,175 +5313,175 @@
         <v>119</v>
       </c>
       <c r="J13" s="78"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="189"/>
       <c r="M13" s="62"/>
       <c r="N13" s="44"/>
     </row>
     <row r="14" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="69"/>
       <c r="E14" s="42"/>
-      <c r="F14" s="83"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="42"/>
       <c r="H14" s="55"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="68"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="86"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="84"/>
     </row>
     <row r="15" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="69"/>
       <c r="E15" s="42"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
       <c r="H15" s="55"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="86"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="84"/>
     </row>
     <row r="16" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="69"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="86"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="84"/>
     </row>
     <row r="17" spans="2:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="69"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="86"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="84"/>
     </row>
     <row r="18" spans="2:14" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="69"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
       <c r="H18" s="55"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="86"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="84"/>
     </row>
     <row r="19" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="69"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="83"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="86"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="84"/>
     </row>
     <row r="20" spans="2:14" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="69"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="83"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="42"/>
       <c r="H20" s="55"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="86"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="84"/>
     </row>
     <row r="21" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="69"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="83"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="42"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="86"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="84"/>
     </row>
     <row r="22" spans="2:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="69"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
     </row>
     <row r="23" spans="2:14" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="69"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
       <c r="K23" s="68"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
     </row>
     <row r="24" spans="2:14" ht="67.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="69"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="83"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="42"/>
       <c r="H24" s="55"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
       <c r="K24" s="68"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="87"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -5495,7 +5495,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="88"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5509,7 +5509,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="88"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6690,29 +6690,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="M14:M16"/>
     <mergeCell ref="C14:C16"/>
@@ -6727,6 +6704,29 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="M22:M24"/>
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -6892,30 +6892,30 @@
   <sheetData>
     <row r="2" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="H3" s="107" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="H3" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
-      <c r="O3" s="97" t="s">
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="110"/>
+      <c r="O3" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="100" t="s">
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="101"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
@@ -6997,19 +6997,19 @@
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
       <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
       <c r="L6" s="13" t="s">
         <v>33</v>
       </c>
@@ -7019,11 +7019,11 @@
       <c r="O6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="102" t="s">
+      <c r="P6" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="104"/>
       <c r="S6" s="37" t="s">
         <v>50</v>
       </c>
@@ -7083,19 +7083,19 @@
       <c r="B9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
       <c r="O9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="104" t="s">
+      <c r="P9" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="107"/>
       <c r="S9" s="38" t="s">
         <v>55</v>
       </c>
@@ -7162,364 +7162,364 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="156">
+      <c r="D4" s="137"/>
+      <c r="E4" s="180">
         <v>3</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="126">
+      <c r="F4" s="169"/>
+      <c r="G4" s="150">
         <v>6</v>
       </c>
-      <c r="H4" s="127"/>
-      <c r="I4" s="120">
+      <c r="H4" s="151"/>
+      <c r="I4" s="144">
         <v>9</v>
       </c>
-      <c r="J4" s="121"/>
-      <c r="N4" s="114" t="s">
+      <c r="J4" s="145"/>
+      <c r="N4" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="183" t="s">
+      <c r="O4" s="133"/>
+      <c r="P4" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="184"/>
-      <c r="R4" s="184"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="185"/>
-      <c r="V4" s="114" t="s">
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="117"/>
+      <c r="V4" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="115"/>
-      <c r="X4" s="183" t="s">
+      <c r="W4" s="133"/>
+      <c r="X4" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="Y4" s="184"/>
-      <c r="Z4" s="184"/>
-      <c r="AA4" s="184"/>
-      <c r="AB4" s="185"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="117"/>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
-      <c r="N5" s="172" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="147"/>
+      <c r="N5" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="173"/>
-      <c r="P5" s="174" t="s">
+      <c r="O5" s="139"/>
+      <c r="P5" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="176"/>
-      <c r="S5" s="116" t="s">
+      <c r="Q5" s="135"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="117"/>
-      <c r="V5" s="172" t="s">
+      <c r="T5" s="141"/>
+      <c r="V5" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="173"/>
-      <c r="X5" s="174" t="s">
+      <c r="W5" s="139"/>
+      <c r="X5" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="Y5" s="175"/>
-      <c r="Z5" s="176"/>
-      <c r="AA5" s="116" t="s">
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="AB5" s="117"/>
+      <c r="AB5" s="141"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
-      <c r="N6" s="164" t="s">
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
+      <c r="N6" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="165"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="178"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="166" t="s">
+      <c r="O6" s="119"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="167"/>
-      <c r="V6" s="164" t="s">
+      <c r="T6" s="124"/>
+      <c r="V6" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="165"/>
-      <c r="X6" s="177" t="s">
+      <c r="W6" s="119"/>
+      <c r="X6" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="178"/>
-      <c r="Z6" s="179"/>
-      <c r="AA6" s="166" t="s">
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="AB6" s="167"/>
+      <c r="AB6" s="124"/>
     </row>
     <row r="7" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
-      <c r="N7" s="168" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
+      <c r="N7" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="169"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="182"/>
-      <c r="S7" s="170" t="s">
+      <c r="O7" s="126"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="171"/>
-      <c r="V7" s="168" t="s">
+      <c r="T7" s="131"/>
+      <c r="V7" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="W7" s="169"/>
-      <c r="X7" s="180" t="s">
+      <c r="W7" s="126"/>
+      <c r="X7" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="182"/>
-      <c r="AA7" s="170" t="s">
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="AB7" s="171"/>
+      <c r="AB7" s="131"/>
     </row>
     <row r="8" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
     </row>
     <row r="9" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="186"/>
-      <c r="C9" s="186" t="s">
+      <c r="B9" s="114"/>
+      <c r="C9" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="187"/>
-      <c r="E9" s="160">
+      <c r="D9" s="137"/>
+      <c r="E9" s="184">
         <v>2</v>
       </c>
-      <c r="F9" s="133"/>
-      <c r="G9" s="150">
+      <c r="F9" s="157"/>
+      <c r="G9" s="174">
         <v>4</v>
       </c>
-      <c r="H9" s="151"/>
-      <c r="I9" s="126">
+      <c r="H9" s="175"/>
+      <c r="I9" s="150">
         <v>6</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="N9" s="114" t="s">
+      <c r="J9" s="151"/>
+      <c r="N9" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="115"/>
-      <c r="P9" s="183" t="s">
+      <c r="O9" s="133"/>
+      <c r="P9" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="184"/>
-      <c r="S9" s="184"/>
-      <c r="T9" s="185"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="117"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="129"/>
-      <c r="N10" s="172" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="153"/>
+      <c r="N10" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="173"/>
-      <c r="P10" s="174" t="s">
+      <c r="O10" s="139"/>
+      <c r="P10" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="176"/>
-      <c r="S10" s="116" t="s">
+      <c r="Q10" s="135"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="117"/>
+      <c r="T10" s="141"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="186"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="129"/>
-      <c r="N11" s="164" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="153"/>
+      <c r="N11" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="165"/>
-      <c r="P11" s="177" t="s">
+      <c r="O11" s="119"/>
+      <c r="P11" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="178"/>
-      <c r="R11" s="179"/>
-      <c r="S11" s="166" t="s">
+      <c r="Q11" s="121"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="167"/>
+      <c r="T11" s="124"/>
     </row>
     <row r="12" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
-      <c r="N12" s="168" t="s">
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+      <c r="N12" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="169"/>
-      <c r="P12" s="180" t="s">
+      <c r="O12" s="126"/>
+      <c r="P12" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" s="181"/>
-      <c r="R12" s="182"/>
-      <c r="S12" s="170" t="s">
+      <c r="Q12" s="128"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="171"/>
+      <c r="T12" s="131"/>
     </row>
     <row r="13" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="155"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
+      <c r="P13" s="188"/>
+      <c r="Q13" s="188"/>
+      <c r="R13" s="188"/>
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="186"/>
-      <c r="C14" s="186" t="s">
+      <c r="B14" s="114"/>
+      <c r="C14" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="187"/>
-      <c r="E14" s="138">
+      <c r="D14" s="137"/>
+      <c r="E14" s="162">
         <v>1</v>
       </c>
-      <c r="F14" s="139"/>
-      <c r="G14" s="132">
+      <c r="F14" s="163"/>
+      <c r="G14" s="156">
         <v>2</v>
       </c>
-      <c r="H14" s="133"/>
-      <c r="I14" s="144">
+      <c r="H14" s="157"/>
+      <c r="I14" s="168">
         <v>3</v>
       </c>
-      <c r="J14" s="145"/>
+      <c r="J14" s="169"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="171"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="173"/>
       <c r="K18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="10.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="118" t="s">
+      <c r="E19" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118" t="s">
+      <c r="F19" s="142"/>
+      <c r="G19" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118" t="s">
+      <c r="H19" s="142"/>
+      <c r="I19" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="118"/>
+      <c r="J19" s="142"/>
       <c r="L19" t="s">
         <v>18</v>
       </c>
@@ -7527,37 +7527,37 @@
     <row r="20" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7633,6 +7633,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="I4:J8"/>
+    <mergeCell ref="I9:J13"/>
+    <mergeCell ref="G14:H18"/>
+    <mergeCell ref="E14:F18"/>
+    <mergeCell ref="I14:J18"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="E4:F8"/>
+    <mergeCell ref="G4:H8"/>
+    <mergeCell ref="E9:F13"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="E21:J22"/>
     <mergeCell ref="B4:B18"/>
     <mergeCell ref="P9:T9"/>
@@ -7649,41 +7684,6 @@
     <mergeCell ref="C9:D13"/>
     <mergeCell ref="C4:D8"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="I4:J8"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="G14:H18"/>
-    <mergeCell ref="E14:F18"/>
-    <mergeCell ref="I14:J18"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="E4:F8"/>
-    <mergeCell ref="G4:H8"/>
-    <mergeCell ref="E9:F13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="S10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="150" orientation="portrait" r:id="rId1"/>
@@ -7726,212 +7726,212 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="156">
+      <c r="D5" s="137"/>
+      <c r="E5" s="180">
         <v>3</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="126">
+      <c r="F5" s="169"/>
+      <c r="G5" s="150">
         <v>6</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="120">
+      <c r="H5" s="151"/>
+      <c r="I5" s="144">
         <v>9</v>
       </c>
-      <c r="J5" s="121"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="123"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
     </row>
     <row r="9" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="186"/>
-      <c r="C10" s="186" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="160">
+      <c r="D10" s="137"/>
+      <c r="E10" s="184">
         <v>2</v>
       </c>
-      <c r="F10" s="133"/>
-      <c r="G10" s="150">
+      <c r="F10" s="157"/>
+      <c r="G10" s="174">
         <v>4</v>
       </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="126">
+      <c r="H10" s="175"/>
+      <c r="I10" s="150">
         <v>6</v>
       </c>
-      <c r="J10" s="127"/>
+      <c r="J10" s="151"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="186"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="129"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="153"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="129"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="131"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="155"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="186"/>
-      <c r="C15" s="186" t="s">
+      <c r="B15" s="114"/>
+      <c r="C15" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="187"/>
-      <c r="E15" s="138">
+      <c r="D15" s="137"/>
+      <c r="E15" s="162">
         <v>1</v>
       </c>
-      <c r="F15" s="139"/>
-      <c r="G15" s="132">
+      <c r="F15" s="163"/>
+      <c r="G15" s="156">
         <v>2</v>
       </c>
-      <c r="H15" s="133"/>
-      <c r="I15" s="144">
+      <c r="H15" s="157"/>
+      <c r="I15" s="168">
         <v>3</v>
       </c>
-      <c r="J15" s="145"/>
+      <c r="J15" s="169"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="149"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="173"/>
       <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118" t="s">
+      <c r="F20" s="142"/>
+      <c r="G20" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118" t="s">
+      <c r="H20" s="142"/>
+      <c r="I20" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="118"/>
+      <c r="J20" s="142"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
@@ -7939,48 +7939,41 @@
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
       <c r="K23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E22:J23"/>
-    <mergeCell ref="E15:F19"/>
-    <mergeCell ref="G15:H19"/>
-    <mergeCell ref="I15:J19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
     <mergeCell ref="B5:B19"/>
     <mergeCell ref="C5:D9"/>
     <mergeCell ref="E5:F9"/>
@@ -7991,6 +7984,13 @@
     <mergeCell ref="G10:H14"/>
     <mergeCell ref="I10:J14"/>
     <mergeCell ref="C15:D19"/>
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="E15:F19"/>
+    <mergeCell ref="G15:H19"/>
+    <mergeCell ref="I15:J19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="180" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
+++ b/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausschwegler/OneDrive/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/Statusberichte/Tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{71AB2A22-7A19-774F-BAC4-8DA330A574D6}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9614A430-17AB-7542-85A1-98CD0BB932A7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1428,7 +1428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1664,31 +1664,34 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,232 +1766,235 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4930,7 +4936,7 @@
   <dimension ref="B1:N107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L13"/>
+      <selection activeCell="M4" sqref="M4:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4952,21 +4958,21 @@
     <row r="1" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66"/>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="86" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="2:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5035,8 +5041,8 @@
       </c>
       <c r="J4" s="79"/>
       <c r="K4" s="79"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="48"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="190"/>
       <c r="N4" s="56"/>
     </row>
     <row r="5" spans="2:14" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5066,8 +5072,8 @@
       </c>
       <c r="J5" s="78"/>
       <c r="K5" s="79"/>
-      <c r="L5" s="189"/>
-      <c r="M5" s="48"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="190"/>
       <c r="N5" s="56"/>
     </row>
     <row r="6" spans="2:14" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5097,8 +5103,8 @@
       </c>
       <c r="J6" s="80"/>
       <c r="K6" s="79"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="48"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="190"/>
       <c r="N6" s="47"/>
     </row>
     <row r="7" spans="2:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5128,8 +5134,8 @@
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="80"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="48"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="190"/>
       <c r="N7" s="45"/>
     </row>
     <row r="8" spans="2:14" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5159,8 +5165,8 @@
       </c>
       <c r="J8" s="78"/>
       <c r="K8" s="79"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="48"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="190"/>
       <c r="N8" s="45"/>
     </row>
     <row r="9" spans="2:14" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5190,8 +5196,8 @@
       </c>
       <c r="J9" s="78"/>
       <c r="K9" s="79"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="61"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="191"/>
       <c r="N9" s="41"/>
     </row>
     <row r="10" spans="2:14" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5221,8 +5227,8 @@
       </c>
       <c r="J10" s="78"/>
       <c r="K10" s="79"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="61"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="191"/>
       <c r="N10" s="41"/>
     </row>
     <row r="11" spans="2:14" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5252,8 +5258,8 @@
       </c>
       <c r="J11" s="78"/>
       <c r="K11" s="79"/>
-      <c r="L11" s="189"/>
-      <c r="M11" s="61"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="191"/>
       <c r="N11" s="41"/>
     </row>
     <row r="12" spans="2:14" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5283,8 +5289,8 @@
       </c>
       <c r="J12" s="78"/>
       <c r="K12" s="79"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="48"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="190"/>
       <c r="N12" s="44"/>
     </row>
     <row r="13" spans="2:14" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5314,174 +5320,174 @@
       </c>
       <c r="J13" s="78"/>
       <c r="K13" s="79"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="62"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="190"/>
       <c r="N13" s="44"/>
     </row>
     <row r="14" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="83"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="85"/>
       <c r="D14" s="69"/>
       <c r="E14" s="42"/>
       <c r="F14" s="85"/>
       <c r="G14" s="42"/>
       <c r="H14" s="55"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
       <c r="K14" s="68"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="88"/>
     </row>
     <row r="15" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="83"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="85"/>
       <c r="D15" s="69"/>
       <c r="E15" s="42"/>
       <c r="F15" s="85"/>
       <c r="G15" s="85"/>
       <c r="H15" s="55"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="88"/>
     </row>
     <row r="16" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="83"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="85"/>
       <c r="D16" s="69"/>
       <c r="E16" s="42"/>
       <c r="F16" s="85"/>
       <c r="G16" s="85"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="88"/>
     </row>
     <row r="17" spans="2:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="83"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="85"/>
       <c r="D17" s="69"/>
       <c r="E17" s="42"/>
       <c r="F17" s="85"/>
       <c r="G17" s="85"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="88"/>
     </row>
     <row r="18" spans="2:14" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="83"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="85"/>
       <c r="D18" s="69"/>
       <c r="E18" s="42"/>
       <c r="F18" s="85"/>
       <c r="G18" s="85"/>
       <c r="H18" s="55"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="88"/>
     </row>
     <row r="19" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="83"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="85"/>
       <c r="D19" s="69"/>
       <c r="E19" s="42"/>
       <c r="F19" s="85"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="88"/>
     </row>
     <row r="20" spans="2:14" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="83"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="85"/>
       <c r="D20" s="69"/>
       <c r="E20" s="42"/>
       <c r="F20" s="85"/>
       <c r="G20" s="42"/>
       <c r="H20" s="55"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="88"/>
     </row>
     <row r="21" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="83"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="85"/>
       <c r="D21" s="69"/>
       <c r="E21" s="42"/>
       <c r="F21" s="85"/>
       <c r="G21" s="42"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="88"/>
     </row>
     <row r="22" spans="2:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="83"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="85"/>
       <c r="D22" s="69"/>
       <c r="E22" s="85"/>
       <c r="F22" s="85"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
     </row>
     <row r="23" spans="2:14" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="83"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="85"/>
       <c r="D23" s="69"/>
       <c r="E23" s="85"/>
       <c r="F23" s="85"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
       <c r="K23" s="68"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
     </row>
     <row r="24" spans="2:14" ht="67.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="85"/>
       <c r="D24" s="69"/>
       <c r="E24" s="42"/>
       <c r="F24" s="85"/>
       <c r="G24" s="42"/>
       <c r="H24" s="55"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
       <c r="K24" s="68"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="81"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -5495,7 +5501,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="82"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5509,7 +5515,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="82"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6690,6 +6696,29 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="M14:M16"/>
     <mergeCell ref="C14:C16"/>
@@ -6704,29 +6733,6 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="M22:M24"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -6892,30 +6898,30 @@
   <sheetData>
     <row r="2" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
-      <c r="H3" s="108" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="H3" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="110"/>
-      <c r="O3" s="98" t="s">
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
+      <c r="O3" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="101" t="s">
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="102"/>
+      <c r="T3" s="103"/>
     </row>
     <row r="4" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
@@ -6997,19 +7003,19 @@
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
       <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I6" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
       <c r="L6" s="13" t="s">
         <v>33</v>
       </c>
@@ -7019,11 +7025,11 @@
       <c r="O6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="103" t="s">
+      <c r="P6" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="105"/>
       <c r="S6" s="37" t="s">
         <v>50</v>
       </c>
@@ -7083,19 +7089,19 @@
       <c r="B9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
       <c r="O9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="105" t="s">
+      <c r="P9" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="108"/>
       <c r="S9" s="38" t="s">
         <v>55</v>
       </c>
@@ -7162,364 +7168,364 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="180">
+      <c r="D4" s="189"/>
+      <c r="E4" s="158">
         <v>3</v>
       </c>
-      <c r="F4" s="169"/>
-      <c r="G4" s="150">
+      <c r="F4" s="147"/>
+      <c r="G4" s="128">
         <v>6</v>
       </c>
-      <c r="H4" s="151"/>
-      <c r="I4" s="144">
+      <c r="H4" s="129"/>
+      <c r="I4" s="122">
         <v>9</v>
       </c>
-      <c r="J4" s="145"/>
-      <c r="N4" s="132" t="s">
+      <c r="J4" s="123"/>
+      <c r="N4" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="133"/>
-      <c r="P4" s="115" t="s">
+      <c r="O4" s="117"/>
+      <c r="P4" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="117"/>
-      <c r="V4" s="132" t="s">
+      <c r="Q4" s="186"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="187"/>
+      <c r="V4" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="133"/>
-      <c r="X4" s="115" t="s">
+      <c r="W4" s="117"/>
+      <c r="X4" s="185" t="s">
         <v>88</v>
       </c>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="117"/>
+      <c r="Y4" s="186"/>
+      <c r="Z4" s="186"/>
+      <c r="AA4" s="186"/>
+      <c r="AB4" s="187"/>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="147"/>
-      <c r="N5" s="138" t="s">
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="125"/>
+      <c r="N5" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="139"/>
-      <c r="P5" s="134" t="s">
+      <c r="O5" s="175"/>
+      <c r="P5" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="140" t="s">
+      <c r="Q5" s="177"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="141"/>
-      <c r="V5" s="138" t="s">
+      <c r="T5" s="119"/>
+      <c r="V5" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="139"/>
-      <c r="X5" s="134" t="s">
+      <c r="W5" s="175"/>
+      <c r="X5" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="140" t="s">
+      <c r="Y5" s="177"/>
+      <c r="Z5" s="178"/>
+      <c r="AA5" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="AB5" s="141"/>
+      <c r="AB5" s="119"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
-      <c r="N6" s="118" t="s">
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
+      <c r="N6" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="119"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="123" t="s">
+      <c r="O6" s="167"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="180"/>
+      <c r="R6" s="181"/>
+      <c r="S6" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="124"/>
-      <c r="V6" s="118" t="s">
+      <c r="T6" s="169"/>
+      <c r="V6" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="119"/>
-      <c r="X6" s="120" t="s">
+      <c r="W6" s="167"/>
+      <c r="X6" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="123" t="s">
+      <c r="Y6" s="180"/>
+      <c r="Z6" s="181"/>
+      <c r="AA6" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="AB6" s="124"/>
+      <c r="AB6" s="169"/>
     </row>
     <row r="7" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="147"/>
-      <c r="N7" s="125" t="s">
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="125"/>
+      <c r="N7" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="126"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="130" t="s">
+      <c r="O7" s="171"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="131"/>
-      <c r="V7" s="125" t="s">
+      <c r="T7" s="173"/>
+      <c r="V7" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="W7" s="126"/>
-      <c r="X7" s="127" t="s">
+      <c r="W7" s="171"/>
+      <c r="X7" s="182" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="130" t="s">
+      <c r="Y7" s="183"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="AB7" s="131"/>
+      <c r="AB7" s="173"/>
     </row>
     <row r="8" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
     </row>
     <row r="9" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
-      <c r="C9" s="114" t="s">
+      <c r="B9" s="188"/>
+      <c r="C9" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="184">
+      <c r="D9" s="189"/>
+      <c r="E9" s="162">
         <v>2</v>
       </c>
-      <c r="F9" s="157"/>
-      <c r="G9" s="174">
+      <c r="F9" s="135"/>
+      <c r="G9" s="152">
         <v>4</v>
       </c>
-      <c r="H9" s="175"/>
-      <c r="I9" s="150">
+      <c r="H9" s="153"/>
+      <c r="I9" s="128">
         <v>6</v>
       </c>
-      <c r="J9" s="151"/>
-      <c r="N9" s="132" t="s">
+      <c r="J9" s="129"/>
+      <c r="N9" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="133"/>
-      <c r="P9" s="115" t="s">
+      <c r="O9" s="117"/>
+      <c r="P9" s="185" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="117"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="187"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="153"/>
-      <c r="N10" s="138" t="s">
+      <c r="B10" s="188"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131"/>
+      <c r="N10" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="139"/>
-      <c r="P10" s="134" t="s">
+      <c r="O10" s="175"/>
+      <c r="P10" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="140" t="s">
+      <c r="Q10" s="177"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="141"/>
+      <c r="T10" s="119"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="153"/>
-      <c r="N11" s="118" t="s">
+      <c r="B11" s="188"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
+      <c r="N11" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="119"/>
-      <c r="P11" s="120" t="s">
+      <c r="O11" s="167"/>
+      <c r="P11" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="123" t="s">
+      <c r="Q11" s="180"/>
+      <c r="R11" s="181"/>
+      <c r="S11" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="124"/>
+      <c r="T11" s="169"/>
     </row>
     <row r="12" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="153"/>
-      <c r="N12" s="125" t="s">
+      <c r="B12" s="188"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
+      <c r="N12" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="126"/>
-      <c r="P12" s="127" t="s">
+      <c r="O12" s="171"/>
+      <c r="P12" s="182" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="130" t="s">
+      <c r="Q12" s="183"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="131"/>
+      <c r="T12" s="173"/>
     </row>
     <row r="13" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="155"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="188"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="188"/>
-      <c r="R13" s="188"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="133"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="114"/>
-      <c r="C14" s="114" t="s">
+      <c r="B14" s="188"/>
+      <c r="C14" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="162">
+      <c r="D14" s="189"/>
+      <c r="E14" s="140">
         <v>1</v>
       </c>
-      <c r="F14" s="163"/>
-      <c r="G14" s="156">
+      <c r="F14" s="141"/>
+      <c r="G14" s="134">
         <v>2</v>
       </c>
-      <c r="H14" s="157"/>
-      <c r="I14" s="168">
+      <c r="H14" s="135"/>
+      <c r="I14" s="146">
         <v>3</v>
       </c>
-      <c r="J14" s="169"/>
+      <c r="J14" s="147"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="171"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="149"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="171"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="149"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="149"/>
     </row>
     <row r="18" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="173"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
       <c r="K18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="10.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="142" t="s">
+      <c r="E19" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142" t="s">
+      <c r="F19" s="120"/>
+      <c r="G19" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142" t="s">
+      <c r="H19" s="120"/>
+      <c r="I19" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="142"/>
+      <c r="J19" s="120"/>
       <c r="L19" t="s">
         <v>18</v>
       </c>
@@ -7527,37 +7533,37 @@
     <row r="20" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7633,41 +7639,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="I4:J8"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="G14:H18"/>
-    <mergeCell ref="E14:F18"/>
-    <mergeCell ref="I14:J18"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="E4:F8"/>
-    <mergeCell ref="G4:H8"/>
-    <mergeCell ref="E9:F13"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="E21:J22"/>
     <mergeCell ref="B4:B18"/>
     <mergeCell ref="P9:T9"/>
@@ -7684,6 +7655,41 @@
     <mergeCell ref="C9:D13"/>
     <mergeCell ref="C4:D8"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="I4:J8"/>
+    <mergeCell ref="I9:J13"/>
+    <mergeCell ref="G14:H18"/>
+    <mergeCell ref="E14:F18"/>
+    <mergeCell ref="I14:J18"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="E4:F8"/>
+    <mergeCell ref="G4:H8"/>
+    <mergeCell ref="E9:F13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="S10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="150" orientation="portrait" r:id="rId1"/>
@@ -7726,212 +7732,212 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="180">
+      <c r="D5" s="189"/>
+      <c r="E5" s="158">
         <v>3</v>
       </c>
-      <c r="F5" s="169"/>
-      <c r="G5" s="150">
+      <c r="F5" s="147"/>
+      <c r="G5" s="128">
         <v>6</v>
       </c>
-      <c r="H5" s="151"/>
-      <c r="I5" s="144">
+      <c r="H5" s="129"/>
+      <c r="I5" s="122">
         <v>9</v>
       </c>
-      <c r="J5" s="145"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="147"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="125"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
     </row>
     <row r="9" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="114"/>
-      <c r="C10" s="114" t="s">
+      <c r="B10" s="188"/>
+      <c r="C10" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="137"/>
-      <c r="E10" s="184">
+      <c r="D10" s="189"/>
+      <c r="E10" s="162">
         <v>2</v>
       </c>
-      <c r="F10" s="157"/>
-      <c r="G10" s="174">
+      <c r="F10" s="135"/>
+      <c r="G10" s="152">
         <v>4</v>
       </c>
-      <c r="H10" s="175"/>
-      <c r="I10" s="150">
+      <c r="H10" s="153"/>
+      <c r="I10" s="128">
         <v>6</v>
       </c>
-      <c r="J10" s="151"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="153"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="153"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="155"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="133"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="114"/>
-      <c r="C15" s="114" t="s">
+      <c r="B15" s="188"/>
+      <c r="C15" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="162">
+      <c r="D15" s="189"/>
+      <c r="E15" s="140">
         <v>1</v>
       </c>
-      <c r="F15" s="163"/>
-      <c r="G15" s="156">
+      <c r="F15" s="141"/>
+      <c r="G15" s="134">
         <v>2</v>
       </c>
-      <c r="H15" s="157"/>
-      <c r="I15" s="168">
+      <c r="H15" s="135"/>
+      <c r="I15" s="146">
         <v>3</v>
       </c>
-      <c r="J15" s="169"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="171"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="149"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="149"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="149"/>
     </row>
     <row r="19" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="173"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
       <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="142" t="s">
+      <c r="E20" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142" t="s">
+      <c r="F20" s="120"/>
+      <c r="G20" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142" t="s">
+      <c r="H20" s="120"/>
+      <c r="I20" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="142"/>
+      <c r="J20" s="120"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
@@ -7939,41 +7945,48 @@
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="82" t="s">
+      <c r="E22" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
       <c r="K23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="E15:F19"/>
+    <mergeCell ref="G15:H19"/>
+    <mergeCell ref="I15:J19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
     <mergeCell ref="B5:B19"/>
     <mergeCell ref="C5:D9"/>
     <mergeCell ref="E5:F9"/>
@@ -7984,13 +7997,6 @@
     <mergeCell ref="G10:H14"/>
     <mergeCell ref="I10:J14"/>
     <mergeCell ref="C15:D19"/>
-    <mergeCell ref="E22:J23"/>
-    <mergeCell ref="E15:F19"/>
-    <mergeCell ref="G15:H19"/>
-    <mergeCell ref="I15:J19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="180" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
+++ b/Statusberichte/Tabellen/Risikoanalyse_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausschwegler/OneDrive/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/Statusberichte/Tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9614A430-17AB-7542-85A1-98CD0BB932A7}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="6_{4A487E8F-7EAC-104B-9FE2-64290F311D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{25450E9A-8123-F142-858F-8DF0F91E3D07}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1667,31 +1667,31 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1766,235 +1766,235 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4958,21 +4958,21 @@
     <row r="1" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66"/>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="82" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="2:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5326,10 +5326,10 @@
     </row>
     <row r="14" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="69"/>
       <c r="E14" s="42"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="42"/>
       <c r="H14" s="55"/>
       <c r="I14" s="84"/>
@@ -5337,74 +5337,74 @@
       <c r="K14" s="68"/>
       <c r="L14" s="84"/>
       <c r="M14" s="84"/>
-      <c r="N14" s="88"/>
+      <c r="N14" s="85"/>
     </row>
     <row r="15" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="69"/>
       <c r="E15" s="42"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="55"/>
       <c r="I15" s="84"/>
       <c r="J15" s="84"/>
       <c r="K15" s="68"/>
       <c r="L15" s="84"/>
       <c r="M15" s="84"/>
-      <c r="N15" s="88"/>
+      <c r="N15" s="85"/>
     </row>
     <row r="16" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="69"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="55"/>
       <c r="I16" s="84"/>
       <c r="J16" s="84"/>
       <c r="K16" s="68"/>
       <c r="L16" s="84"/>
       <c r="M16" s="84"/>
-      <c r="N16" s="88"/>
+      <c r="N16" s="85"/>
     </row>
     <row r="17" spans="2:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="69"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="55"/>
       <c r="I17" s="84"/>
       <c r="J17" s="84"/>
       <c r="K17" s="68"/>
       <c r="L17" s="84"/>
       <c r="M17" s="84"/>
-      <c r="N17" s="88"/>
+      <c r="N17" s="85"/>
     </row>
     <row r="18" spans="2:14" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="69"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
       <c r="H18" s="55"/>
       <c r="I18" s="84"/>
       <c r="J18" s="84"/>
       <c r="K18" s="68"/>
       <c r="L18" s="84"/>
       <c r="M18" s="84"/>
-      <c r="N18" s="88"/>
+      <c r="N18" s="85"/>
     </row>
     <row r="19" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="69"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="85"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="84"/>
@@ -5412,14 +5412,14 @@
       <c r="K19" s="68"/>
       <c r="L19" s="84"/>
       <c r="M19" s="84"/>
-      <c r="N19" s="88"/>
+      <c r="N19" s="85"/>
     </row>
     <row r="20" spans="2:14" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="69"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="85"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="42"/>
       <c r="H20" s="55"/>
       <c r="I20" s="84"/>
@@ -5427,14 +5427,14 @@
       <c r="K20" s="68"/>
       <c r="L20" s="84"/>
       <c r="M20" s="84"/>
-      <c r="N20" s="88"/>
+      <c r="N20" s="85"/>
     </row>
     <row r="21" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="69"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="85"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="42"/>
       <c r="H21" s="55"/>
       <c r="I21" s="84"/>
@@ -5442,14 +5442,14 @@
       <c r="K21" s="68"/>
       <c r="L21" s="84"/>
       <c r="M21" s="84"/>
-      <c r="N21" s="88"/>
+      <c r="N21" s="85"/>
     </row>
     <row r="22" spans="2:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="69"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
       <c r="I22" s="84"/>
@@ -5460,10 +5460,10 @@
     </row>
     <row r="23" spans="2:14" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="69"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="84"/>
@@ -5474,10 +5474,10 @@
     </row>
     <row r="24" spans="2:14" ht="67.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="69"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="85"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="42"/>
       <c r="H24" s="55"/>
       <c r="I24" s="84"/>
@@ -5487,7 +5487,7 @@
       <c r="M24" s="84"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="89"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -5501,7 +5501,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="90"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5515,7 +5515,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="90"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6696,29 +6696,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="M14:M16"/>
     <mergeCell ref="C14:C16"/>
@@ -6733,6 +6710,29 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="M22:M24"/>
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -7168,364 +7168,364 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="158">
+      <c r="D4" s="138"/>
+      <c r="E4" s="181">
         <v>3</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="128">
+      <c r="F4" s="170"/>
+      <c r="G4" s="151">
         <v>6</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="122">
+      <c r="H4" s="152"/>
+      <c r="I4" s="145">
         <v>9</v>
       </c>
-      <c r="J4" s="123"/>
-      <c r="N4" s="116" t="s">
+      <c r="J4" s="146"/>
+      <c r="N4" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="117"/>
-      <c r="P4" s="185" t="s">
+      <c r="O4" s="134"/>
+      <c r="P4" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="186"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="186"/>
-      <c r="T4" s="187"/>
-      <c r="V4" s="116" t="s">
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="118"/>
+      <c r="V4" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="117"/>
-      <c r="X4" s="185" t="s">
+      <c r="W4" s="134"/>
+      <c r="X4" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="Y4" s="186"/>
-      <c r="Z4" s="186"/>
-      <c r="AA4" s="186"/>
-      <c r="AB4" s="187"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="118"/>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="125"/>
-      <c r="N5" s="174" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
+      <c r="N5" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="175"/>
-      <c r="P5" s="176" t="s">
+      <c r="O5" s="140"/>
+      <c r="P5" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="118" t="s">
+      <c r="Q5" s="136"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="119"/>
-      <c r="V5" s="174" t="s">
+      <c r="T5" s="142"/>
+      <c r="V5" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="175"/>
-      <c r="X5" s="176" t="s">
+      <c r="W5" s="140"/>
+      <c r="X5" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="Y5" s="177"/>
-      <c r="Z5" s="178"/>
-      <c r="AA5" s="118" t="s">
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="AB5" s="119"/>
+      <c r="AB5" s="142"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-      <c r="N6" s="166" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
+      <c r="N6" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="167"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="180"/>
-      <c r="R6" s="181"/>
-      <c r="S6" s="168" t="s">
+      <c r="O6" s="120"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="169"/>
-      <c r="V6" s="166" t="s">
+      <c r="T6" s="125"/>
+      <c r="V6" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="167"/>
-      <c r="X6" s="179" t="s">
+      <c r="W6" s="120"/>
+      <c r="X6" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="180"/>
-      <c r="Z6" s="181"/>
-      <c r="AA6" s="168" t="s">
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="AB6" s="169"/>
+      <c r="AB6" s="125"/>
     </row>
     <row r="7" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="125"/>
-      <c r="N7" s="170" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
+      <c r="N7" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="171"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="184"/>
-      <c r="S7" s="172" t="s">
+      <c r="O7" s="127"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="173"/>
-      <c r="V7" s="170" t="s">
+      <c r="T7" s="132"/>
+      <c r="V7" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="W7" s="171"/>
-      <c r="X7" s="182" t="s">
+      <c r="W7" s="127"/>
+      <c r="X7" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="184"/>
-      <c r="AA7" s="172" t="s">
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AB7" s="173"/>
+      <c r="AB7" s="132"/>
     </row>
     <row r="8" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="127"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="150"/>
     </row>
     <row r="9" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="188"/>
-      <c r="C9" s="188" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="189"/>
-      <c r="E9" s="162">
+      <c r="D9" s="138"/>
+      <c r="E9" s="185">
         <v>2</v>
       </c>
-      <c r="F9" s="135"/>
-      <c r="G9" s="152">
+      <c r="F9" s="158"/>
+      <c r="G9" s="175">
         <v>4</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="128">
+      <c r="H9" s="176"/>
+      <c r="I9" s="151">
         <v>6</v>
       </c>
-      <c r="J9" s="129"/>
-      <c r="N9" s="116" t="s">
+      <c r="J9" s="152"/>
+      <c r="N9" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="117"/>
-      <c r="P9" s="185" t="s">
+      <c r="O9" s="134"/>
+      <c r="P9" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="187"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="118"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="188"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131"/>
-      <c r="N10" s="174" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
+      <c r="N10" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="175"/>
-      <c r="P10" s="176" t="s">
+      <c r="O10" s="140"/>
+      <c r="P10" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="118" t="s">
+      <c r="Q10" s="136"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="119"/>
+      <c r="T10" s="142"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
-      <c r="N11" s="166" t="s">
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
+      <c r="N11" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="167"/>
-      <c r="P11" s="179" t="s">
+      <c r="O11" s="120"/>
+      <c r="P11" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="180"/>
-      <c r="R11" s="181"/>
-      <c r="S11" s="168" t="s">
+      <c r="Q11" s="122"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="169"/>
+      <c r="T11" s="125"/>
     </row>
     <row r="12" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
-      <c r="N12" s="170" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
+      <c r="N12" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="171"/>
-      <c r="P12" s="182" t="s">
+      <c r="O12" s="127"/>
+      <c r="P12" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" s="183"/>
-      <c r="R12" s="184"/>
-      <c r="S12" s="172" t="s">
+      <c r="Q12" s="129"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="173"/>
+      <c r="T12" s="132"/>
     </row>
     <row r="13" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="156"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="188"/>
-      <c r="C14" s="188" t="s">
+      <c r="B14" s="115"/>
+      <c r="C14" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="189"/>
-      <c r="E14" s="140">
+      <c r="D14" s="138"/>
+      <c r="E14" s="163">
         <v>1</v>
       </c>
-      <c r="F14" s="141"/>
-      <c r="G14" s="134">
+      <c r="F14" s="164"/>
+      <c r="G14" s="157">
         <v>2</v>
       </c>
-      <c r="H14" s="135"/>
-      <c r="I14" s="146">
+      <c r="H14" s="158"/>
+      <c r="I14" s="169">
         <v>3</v>
       </c>
-      <c r="J14" s="147"/>
+      <c r="J14" s="170"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="188"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="149"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="172"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="188"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="149"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="188"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="188"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="174"/>
       <c r="K18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="10.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="120" t="s">
+      <c r="E19" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120" t="s">
+      <c r="F19" s="143"/>
+      <c r="G19" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120" t="s">
+      <c r="H19" s="143"/>
+      <c r="I19" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="120"/>
+      <c r="J19" s="143"/>
       <c r="L19" t="s">
         <v>18</v>
       </c>
@@ -7533,37 +7533,37 @@
     <row r="20" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="90" t="s">
+      <c r="E21" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7639,6 +7639,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="I4:J8"/>
+    <mergeCell ref="I9:J13"/>
+    <mergeCell ref="G14:H18"/>
+    <mergeCell ref="E14:F18"/>
+    <mergeCell ref="I14:J18"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="E4:F8"/>
+    <mergeCell ref="G4:H8"/>
+    <mergeCell ref="E9:F13"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="E21:J22"/>
     <mergeCell ref="B4:B18"/>
     <mergeCell ref="P9:T9"/>
@@ -7655,41 +7690,6 @@
     <mergeCell ref="C9:D13"/>
     <mergeCell ref="C4:D8"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="I4:J8"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="G14:H18"/>
-    <mergeCell ref="E14:F18"/>
-    <mergeCell ref="I14:J18"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="E4:F8"/>
-    <mergeCell ref="G4:H8"/>
-    <mergeCell ref="E9:F13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="S10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="150" orientation="portrait" r:id="rId1"/>
@@ -7732,212 +7732,212 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="189"/>
-      <c r="E5" s="158">
+      <c r="D5" s="138"/>
+      <c r="E5" s="181">
         <v>3</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="128">
+      <c r="F5" s="170"/>
+      <c r="G5" s="151">
         <v>6</v>
       </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="122">
+      <c r="H5" s="152"/>
+      <c r="I5" s="145">
         <v>9</v>
       </c>
-      <c r="J5" s="123"/>
+      <c r="J5" s="146"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="125"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148"/>
     </row>
     <row r="9" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="188"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="188"/>
-      <c r="C10" s="188" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="189"/>
-      <c r="E10" s="162">
+      <c r="D10" s="138"/>
+      <c r="E10" s="185">
         <v>2</v>
       </c>
-      <c r="F10" s="135"/>
-      <c r="G10" s="152">
+      <c r="F10" s="158"/>
+      <c r="G10" s="175">
         <v>4</v>
       </c>
-      <c r="H10" s="153"/>
-      <c r="I10" s="128">
+      <c r="H10" s="176"/>
+      <c r="I10" s="151">
         <v>6</v>
       </c>
-      <c r="J10" s="129"/>
+      <c r="J10" s="152"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="154"/>
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="188"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="156"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="188"/>
-      <c r="C15" s="188" t="s">
+      <c r="B15" s="115"/>
+      <c r="C15" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="189"/>
-      <c r="E15" s="140">
+      <c r="D15" s="138"/>
+      <c r="E15" s="163">
         <v>1</v>
       </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="134">
+      <c r="F15" s="164"/>
+      <c r="G15" s="157">
         <v>2</v>
       </c>
-      <c r="H15" s="135"/>
-      <c r="I15" s="146">
+      <c r="H15" s="158"/>
+      <c r="I15" s="169">
         <v>3</v>
       </c>
-      <c r="J15" s="147"/>
+      <c r="J15" s="170"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="188"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="149"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="188"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="188"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="188"/>
-      <c r="C19" s="188"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="174"/>
       <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="120" t="s">
+      <c r="E20" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120" t="s">
+      <c r="F20" s="143"/>
+      <c r="G20" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120" t="s">
+      <c r="H20" s="143"/>
+      <c r="I20" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="120"/>
+      <c r="J20" s="143"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
@@ -7945,48 +7945,41 @@
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
       <c r="K23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E22:J23"/>
-    <mergeCell ref="E15:F19"/>
-    <mergeCell ref="G15:H19"/>
-    <mergeCell ref="I15:J19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
     <mergeCell ref="B5:B19"/>
     <mergeCell ref="C5:D9"/>
     <mergeCell ref="E5:F9"/>
@@ -7997,6 +7990,13 @@
     <mergeCell ref="G10:H14"/>
     <mergeCell ref="I10:J14"/>
     <mergeCell ref="C15:D19"/>
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="E15:F19"/>
+    <mergeCell ref="G15:H19"/>
+    <mergeCell ref="I15:J19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="180" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
